--- a/addact/AllBlogs.xlsx
+++ b/addact/AllBlogs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="621">
   <si>
     <t>Blog Title</t>
   </si>
@@ -25,1816 +25,1855 @@
     <t>Category</t>
   </si>
   <si>
+    <t>How to manage the IIS Website via the release pipeline?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitesh Patel - Technical Head - ADDACT </t>
+  </si>
+  <si>
+    <t>2023-11-11</t>
+  </si>
+  <si>
+    <t>Sitecore Implementation</t>
+  </si>
+  <si>
+    <t>How to solve the GitHub Long-path Error?</t>
+  </si>
+  <si>
+    <t>2023-11-23</t>
+  </si>
+  <si>
+    <t>How to install Powershell in Sitecore XP Version?</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>How to Unlock Solr Index and cause of Index being locked?</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>How to implement Google ReCAPTCHA Field in Sitecore form?</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>Top 10 Benefits of Sitecore Development for Better User Experience</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>Sitecore Advantage</t>
+  </si>
+  <si>
+    <t>How to conduct Deployment Groups Configuration for CI/CD?</t>
+  </si>
+  <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>How to trigger Continuous deployment for CI/CD pipeline?</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>How to apply query in tree list in Sitecore?</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>How to Implement the Sitecore the Right Way the First Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maulik Dudharejia - Co-Founder &amp; CMO - ADDACT </t>
+  </si>
+  <si>
+    <t>2021-12-07</t>
+  </si>
+  <si>
+    <t>Sitecore Failed to start service 'Sitecore Marketing Automation Engine’ in windows 11 Error | Solution</t>
+  </si>
+  <si>
+    <t>2022-07-14</t>
+  </si>
+  <si>
+    <t>How to implement SOLR Search Code in Sitecore?</t>
+  </si>
+  <si>
+    <t>2023-05-09</t>
+  </si>
+  <si>
+    <t>An Introduction to Sitecore Managed Cloud</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
+  </si>
+  <si>
+    <t>How to use cache for the storing list of items?</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>How to create a scheduled task to execute a PowerShell Script Using Sitecore Task Scheduler?</t>
+  </si>
+  <si>
+    <t>2023-10-02</t>
+  </si>
+  <si>
+    <t>How IQueryable and Take Can Kill Your Sitecore Solution?</t>
+  </si>
+  <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
+    <t>How to Create Custom Command in Sitecore CMS?</t>
+  </si>
+  <si>
+    <t>2023-10-06</t>
+  </si>
+  <si>
+    <t>Sitecore Experience Platform 10.3 Updates and Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jayes Kapadi- CEO of ADDACT </t>
+  </si>
+  <si>
+    <t>2023-10-15</t>
+  </si>
+  <si>
+    <t>Sitecore Personalization - Planning &amp; Designing</t>
+  </si>
+  <si>
+    <t>2019-12-13</t>
+  </si>
+  <si>
+    <t>Create Sitecore Commerce Plug-in</t>
+  </si>
+  <si>
+    <t>2019-12-16</t>
+  </si>
+  <si>
+    <t>Cross-functional Sitecore Certified Team</t>
+  </si>
+  <si>
+    <t>2020-01-08</t>
+  </si>
+  <si>
+    <t>5 Ways to ensure that your Sitecore Development Project is in the hands oaf the Experts</t>
+  </si>
+  <si>
+    <t>2025-01-10</t>
+  </si>
+  <si>
+    <t>COVEO to Solr Migration</t>
+  </si>
+  <si>
+    <t>2020-01-20</t>
+  </si>
+  <si>
+    <t>5 Ways Effective Sitecore Commerce Implementation can Optimize Online Sales</t>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>5 Reasons why Addact is an Ideal Technology Partner for your Sitecore Project</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>Evolve Your Digital Space with Addact’s Sitecore Implementation Audit</t>
+  </si>
+  <si>
+    <t>2020-02-26</t>
+  </si>
+  <si>
+    <t>Custom Sitecore Field Validation | Sitecore Implementation</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>Sitecore Forms display issue in Form Manager</t>
+  </si>
+  <si>
+    <t>2021-07-08</t>
+  </si>
+  <si>
+    <t>Implementing Amazon CloudFront CDN to deliver Sitecore Media</t>
+  </si>
+  <si>
+    <t>2019-04-29</t>
+  </si>
+  <si>
+    <t>Improve Your CRM with Sitecore Consulting - A Guide</t>
+  </si>
+  <si>
+    <t>2024-06-30</t>
+  </si>
+  <si>
+    <t>Sitecore Services</t>
+  </si>
+  <si>
+    <t>How to Migrate from a Legacy CMS to Sitecore: Challenges &amp; Solutions</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>How to Choose a Sitecore Development Partner</t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>How AI is Integrated with Sitecore and the Rise of AI-Powered Search</t>
+  </si>
+  <si>
+    <t>Upasana Joshi II Content Writer</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>Sitecore CMS Explained: Top 9 Features Everyone Should Know!</t>
+  </si>
+  <si>
+    <t>2025-05-16</t>
+  </si>
+  <si>
+    <t>Sitecore Content Cloud: The Future of Scalable and Seamless Digital Content Management</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>Step-by-Step Guide for WordPress to Sitecore Migration</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>Achieve Digital Success with Addact's Sitecore Consulting Services</t>
+  </si>
+  <si>
+    <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>Know Everything About Sitecore Implementation Costs</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>Sitecore Outsourcing: An Overview and the Benefits</t>
+  </si>
+  <si>
+    <t>2024-06-25</t>
+  </si>
+  <si>
+    <t>Sitecore Technical Consultancy</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>Sitecore XP 9.3 – New features &amp; highlights</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>Sitecore Consultation: Customizing the Platform to Fit Your Unique Needs</t>
+  </si>
+  <si>
+    <t>2023-07-20</t>
+  </si>
+  <si>
+    <t>How Sitecore Consultants enhance Personalization and Customer Engagement?</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>Best practices to remotely hire Sitecore Developers in 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nimesh Hadiyel DXP Consultant - ADDACT </t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>Offshore vs Onshore dedicated developer teams: how to choose?</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>Why do you need to upgrade to Sitecore 8 for your website in 2022?</t>
+  </si>
+  <si>
+    <t>2022-10-18</t>
+  </si>
+  <si>
+    <t>Checklist for an upgrade to Sitecore 9 to Sitecore 10</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>Sitecore commerce omnichannel?</t>
+  </si>
+  <si>
+    <t>2021-11-12</t>
+  </si>
+  <si>
+    <t>Sitecore XM Cloud Components Guide</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>XM Cloud</t>
+  </si>
+  <si>
+    <t>Sitecore Managed Service Partner: An Overview &amp; Approach Addact</t>
+  </si>
+  <si>
+    <t>2019-02-18</t>
+  </si>
+  <si>
+    <t>Personalization in: XP vs XM Cloud vs Sitecore Personalize; A complete guide</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>How to Set Up Date-Specific Personalization in Sitecore XM Cloud</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>Sitecore XM Cloud Pricing and Key Insights</t>
+  </si>
+  <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>XMCloud Page.io Error - The remote server returned an error: (413) Body exceed 2MB limit</t>
+  </si>
+  <si>
+    <t>2024-08-21</t>
+  </si>
+  <si>
+    <t>Sitecore Storefront- World’s Best Personalized Commerce Platform!</t>
+  </si>
+  <si>
+    <t>2019-12-17</t>
+  </si>
+  <si>
+    <t>Sitecore Commerce Integration with View and Action API</t>
+  </si>
+  <si>
+    <t>2020-01-13</t>
+  </si>
+  <si>
+    <t>Transition from legacy Sitecore Experience commerce to Sitecore XC9 and employ Extreme Flexibility and Scalability</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>Sitecore Experience Cloud Transforms Digital Experiences</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>How to use Sitecore Log Analyzer Tool?</t>
+  </si>
+  <si>
+    <t>2023-08-10</t>
+  </si>
+  <si>
+    <t>Sitecore Training</t>
+  </si>
+  <si>
+    <t>Conquering Connections: SSMS to Docker SQL Server for XM Cloud</t>
+  </si>
+  <si>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>Why Sitecore CMS is the best CMS for Multilingual Websites?</t>
+  </si>
+  <si>
+    <t>2023-09-12</t>
+  </si>
+  <si>
+    <t>Sitecore Layout Service: Custom Rendering &amp; Custom Contents Resolvers</t>
+  </si>
+  <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>XM Sitecore Development Mistakes to Avoid</t>
+  </si>
+  <si>
+    <t>2024-07-08</t>
+  </si>
+  <si>
+    <t>Migrating from Sitecore XP to XM Cloud with ADDACT</t>
+  </si>
+  <si>
+    <t>2024-07-04</t>
+  </si>
+  <si>
+    <t>Securing Your Sitecore Development: Connecting Dockerized SQL to XM Cloud</t>
+  </si>
+  <si>
+    <t>2024-02-01</t>
+  </si>
+  <si>
+    <t>Securing Your Sitecore XM Cloud: User Creation with Granular Access Control</t>
+  </si>
+  <si>
+    <t>2024-01-25</t>
+  </si>
+  <si>
+    <t>How to restrict value type from field by custom rule validation?</t>
+  </si>
+  <si>
+    <t>2023-09-11</t>
+  </si>
+  <si>
+    <t>How to implement Faceted Search with Sitecore JSS?</t>
+  </si>
+  <si>
+    <t>2023-08-24</t>
+  </si>
+  <si>
+    <t>How to solve certificate chain error in Sitecore 10.x installation?</t>
+  </si>
+  <si>
+    <t>2023-08-02</t>
+  </si>
+  <si>
+    <t>Sitecore XM Cloud: Step by Step Guide for Local Environment Setup</t>
+  </si>
+  <si>
+    <t>2023-06-06</t>
+  </si>
+  <si>
+    <t>What are the best practices to follow as a Sitecore Developer?</t>
+  </si>
+  <si>
+    <t>2023-06-07</t>
+  </si>
+  <si>
+    <t>How to setup integrated mode in Sitecore Headless?</t>
+  </si>
+  <si>
+    <t>2023-06-14</t>
+  </si>
+  <si>
+    <t>How to add custom language in Sitecore?</t>
+  </si>
+  <si>
+    <t>2023-06-27</t>
+  </si>
+  <si>
+    <t>Project Configuration in XM Cloud: A Step-by-step Guide</t>
+  </si>
+  <si>
+    <t>2023-07-12</t>
+  </si>
+  <si>
+    <t>Creating Product Variants in Sitecore OrderCloud – A step-by-step guide</t>
+  </si>
+  <si>
+    <t>2023-07-13</t>
+  </si>
+  <si>
+    <t>How to Configure Language Fallback in Sitecore?</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>How to configure SOLR cores in Sitecore SXA?</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>How to Prevent Draft Stage Items from Getting Published in Sitecore?</t>
+  </si>
+  <si>
+    <t>2023-07-25</t>
+  </si>
+  <si>
+    <t>How to configure Redirect Rule?</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>Special language characters not allowed in Sitecore 10.X Forms | Solution</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>How to resolve “publishing HTML cache clearer” error while upgrading Sitecore?</t>
+  </si>
+  <si>
+    <t>2023-03-23</t>
+  </si>
+  <si>
+    <t>How to create new GraphQL endpoint with custom schema in Sitecore JSS?</t>
+  </si>
+  <si>
+    <t>2023-04-03</t>
+  </si>
+  <si>
+    <t>JSS application feature was not registered with Sitecore</t>
+  </si>
+  <si>
+    <t>How to Solve Sitecore Azure Log Clean-Up Agent Issue?</t>
+  </si>
+  <si>
+    <t>2023-04-20</t>
+  </si>
+  <si>
+    <t>How to update workflow using Powershell Script in Sitecore?</t>
+  </si>
+  <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
+    <t>Get Search Results for Singular and Plural words in your Sitecore Website</t>
+  </si>
+  <si>
+    <t>2023-05-16</t>
+  </si>
+  <si>
+    <t>How to set up Headless NextJS app in Disconnected Mode on Sitecore?</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>How to set up Headless NextJS app in Connected Mode on Sitecore?</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>Sitecore Website Security assessment</t>
+  </si>
+  <si>
+    <t>2022-11-24</t>
+  </si>
+  <si>
+    <t>Override Default Sitecore headless layout API</t>
+  </si>
+  <si>
+    <t>2022-11-23</t>
+  </si>
+  <si>
+    <t>Sitecore Azure web app Basic Authentication</t>
+  </si>
+  <si>
+    <t>2022-11-07</t>
+  </si>
+  <si>
+    <t>Sitecore Media URL not updating in CDN</t>
+  </si>
+  <si>
+    <t>2022-11-09</t>
+  </si>
+  <si>
+    <t>Null Reference Exception in Sitecore Signing Token Provider</t>
+  </si>
+  <si>
+    <t>2022-11-21</t>
+  </si>
+  <si>
+    <t>Sitecore vs Optimizely: A Guide to Selecting the Right DXP</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>SOLR JVM Memory Getting Full</t>
+  </si>
+  <si>
+    <t>2022-11-17</t>
+  </si>
+  <si>
+    <t>Create SSL certificates for development websites</t>
+  </si>
+  <si>
+    <t>2022-11-16</t>
+  </si>
+  <si>
+    <t>Sitecore Implementation Best Practices</t>
+  </si>
+  <si>
+    <t>2022-11-04</t>
+  </si>
+  <si>
+    <t>Handler "AutowiredPageHandlerFactory" has a bad module "ManagedPipelineHandler" in its module list error on IIS</t>
+  </si>
+  <si>
+    <t>2022-10-11</t>
+  </si>
+  <si>
+    <t>Experience Editor fails with a ProfileCardsPanel.css script error in the console</t>
+  </si>
+  <si>
+    <t>2022-10-12</t>
+  </si>
+  <si>
+    <t>Integrate Next.js application to Sitecore Experience Editor</t>
+  </si>
+  <si>
+    <t>2022-11-02</t>
+  </si>
+  <si>
+    <t>Sitecore Security Best Practices: Safeguarding Your Digital Assets</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>Responsive Design with Sitecore: Ensuring a Mobile-Friendly Experience</t>
+  </si>
+  <si>
+    <t>Sitecore XP vs. Sitecore XM: Choosing the Right Experience for Your Business</t>
+  </si>
+  <si>
+    <t>2024-02-02</t>
+  </si>
+  <si>
+    <t>Sitecore Experience Editor unknown JSON error</t>
+  </si>
+  <si>
+    <t>2022-10-10</t>
+  </si>
+  <si>
+    <t>Benefits of Sitecore XM Cloud: Why it is the perfect fit for your business?</t>
+  </si>
+  <si>
+    <t>What is Sitecore used for? What are some of the best Sitecore features?</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>Sitecore SXA: An Overview and Benefits of Sitecore's Experience Accelerator</t>
+  </si>
+  <si>
+    <t>Sitecore 10 Features you shouldn’t miss: A Comprehensive Overview</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>Security in Sitecore: Best Practices for a Robust Digital Platform</t>
+  </si>
+  <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>How Sitecore CDP holds together AI, ML and more technologies for driving your business!</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>Sitecore vs Adobe vs Salesforce</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>Improve your content lifecycle using the Sitecore Content Hub DAM</t>
+  </si>
+  <si>
+    <t>2023-12-19</t>
+  </si>
+  <si>
+    <t>Beyond Templates: Mastering Sitecore Personalization Strategies</t>
+  </si>
+  <si>
+    <t>2024-01-02</t>
+  </si>
+  <si>
+    <t>Sitecore Multisite Management: A Strategic Approach</t>
+  </si>
+  <si>
+    <t>2024-01-11</t>
+  </si>
+  <si>
+    <t>How can Sitecore XM Cloud help your business reduce total cost of ownership?</t>
+  </si>
+  <si>
+    <t>2023-07-19</t>
+  </si>
+  <si>
+    <t>Maximizing ROI with Sitecore: Key Insights from Consultation Experts</t>
+  </si>
+  <si>
+    <t>Innovative Web Solutions: Advancing Your Projects with Sitecore CMS Development</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
+    <t>Sitecore CMS: Harnessing the Full Potential of Personalization</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>Sitecore Experience Editor: Tips and Tricks for Streamlining Content Editing</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>Sitecore Personalization with Machine Learning: How to deliver more relevant experiences?</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
+    <t>Sitecore Headless CMS vs Traditional CMS: Pros and Cons</t>
+  </si>
+  <si>
+    <t>2023-10-14</t>
+  </si>
+  <si>
+    <t>Sitecore Federated Experience Manager: A Guide to Managing Multisite Content</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>Sitecore Content Hub: A Comprehensive Guide to Content Management</t>
+  </si>
+  <si>
+    <t>2023-08-22</t>
+  </si>
+  <si>
+    <t>Headless Ecommerce through Sitecore OrderCloud</t>
+  </si>
+  <si>
+    <t>2023-09-06</t>
+  </si>
+  <si>
+    <t>Sitecore CMS: Best Practices for Managing Large Scale Content</t>
+  </si>
+  <si>
+    <t>2023-06-20</t>
+  </si>
+  <si>
+    <t>Sitecore OrderCloud: Tips and Tricks for Optimizing Your Online Store</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>Implement Effective SEO Strategies through Sitecore Consultation</t>
+  </si>
+  <si>
+    <t>2023-06-29</t>
+  </si>
+  <si>
+    <t>How can a Sitecore Consultant be helpful for your Sitecore Websites?</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>Why a Sitecore website needs a Sitecore Consultant?</t>
+  </si>
+  <si>
+    <t>2023-04-13</t>
+  </si>
+  <si>
+    <t>Who is a Sitecore CMS Consultant? What are their job duties?</t>
+  </si>
+  <si>
+    <t>2023-04-17</t>
+  </si>
+  <si>
+    <t>Everything you need to know about hiring the right Sitecore developers for your business!</t>
+  </si>
+  <si>
+    <t>2023-03-10</t>
+  </si>
+  <si>
+    <t>A guide to understanding a Composable DXP</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>Hire Sitecore Developers: Pros, Cons, Challenges &amp; Alternatives</t>
+  </si>
+  <si>
+    <t>2023-02-08</t>
+  </si>
+  <si>
+    <t>What is Sitecore Connect?</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>Why do companies hire dedicated Sitecore Developers for their projects?</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
+  </si>
+  <si>
+    <t>What are the new features in Sitecore XP 10.3?</t>
+  </si>
+  <si>
+    <t>2022-12-27</t>
+  </si>
+  <si>
+    <t>What is Sitecore Search?</t>
+  </si>
+  <si>
+    <t>2022-12-02</t>
+  </si>
+  <si>
+    <t>What is Sitecore Content Hub One?</t>
+  </si>
+  <si>
+    <t>2022-12-01</t>
+  </si>
+  <si>
+    <t>Why do you need to upgrade to Sitecore 10 for your website?</t>
+  </si>
+  <si>
+    <t>2022-11-22</t>
+  </si>
+  <si>
+    <t>Why do you need to upgrade to Sitecore 9 for your website?</t>
+  </si>
+  <si>
+    <t>2022-11-08</t>
+  </si>
+  <si>
+    <t>Things to Consider while doing Sitecore Upgrade</t>
+  </si>
+  <si>
+    <t>2022-10-13</t>
+  </si>
+  <si>
+    <t>The Most Common Sitecore Maintenance Service Requests</t>
+  </si>
+  <si>
+    <t>2022-08-16</t>
+  </si>
+  <si>
+    <t>What is Sitecore A/B Testing? Importance of Sitecore A/B Testing</t>
+  </si>
+  <si>
+    <t>2022-07-07</t>
+  </si>
+  <si>
+    <t>What is eCommerce Catalog Management? Importance of Catalog Management</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>Sitecore OrderCloud vs Sitecore Experience Commerce</t>
+  </si>
+  <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>Go-to-market strategies supported by Sitecore OrderCloud</t>
+  </si>
+  <si>
+    <t>2022-05-12</t>
+  </si>
+  <si>
+    <t>How Sitecore Headless CMS benefits your E-Commerce Business</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>What is Sitecore OrderCloud? Major features &amp; benefits</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>Increase Customer Loyalty &amp; Trust using Sitecore CDP</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>How Sitecore Support Services are beneficial for your business?</t>
+  </si>
+  <si>
+    <t>2022-07-28</t>
+  </si>
+  <si>
+    <t>Everything to know about a Customer Data Platform!</t>
+  </si>
+  <si>
+    <t>2022-03-25</t>
+  </si>
+  <si>
+    <t>What is Sitecore Experience Edge | Who will benefit</t>
+  </si>
+  <si>
+    <t>Cost Optimized Sitecore Environments in Azure</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>6 Benefits of Sitecore CMS Support and Maintenance</t>
+  </si>
+  <si>
+    <t>2021-12-17</t>
+  </si>
+  <si>
+    <t>Sitecore Headless eCommerce solutions - Future for Enterprises</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>Advantages of Sitecore integrated platforms</t>
+  </si>
+  <si>
+    <t>2021-05-14</t>
+  </si>
+  <si>
+    <t>Benefits of Sitecore commerce with Four51</t>
+  </si>
+  <si>
+    <t>2021-04-17</t>
+  </si>
+  <si>
+    <t>Defining Features of Sitecore Experience Commerce that Made Sitecore the People’s Choice</t>
+  </si>
+  <si>
+    <t>2020-02-11</t>
+  </si>
+  <si>
+    <t>How to elevate user experience on your Web Platform?</t>
+  </si>
+  <si>
+    <t>2018-11-22</t>
+  </si>
+  <si>
+    <t>A/B Testing Practical in Sitecore 9.2 with SXA</t>
+  </si>
+  <si>
+    <t>2019-12-12</t>
+  </si>
+  <si>
+    <t>Top 3 ways to store media in Sitecore Media Library</t>
+  </si>
+  <si>
+    <t>2023-06-22</t>
+  </si>
+  <si>
+    <t>Sitecore Learning</t>
+  </si>
+  <si>
+    <t>The Role of Sitecore in Your Digital Experience Platform (DXP)</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>How to reset Sitecore items security settings from the item’s templates and standard values?</t>
+  </si>
+  <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>How to configure multiple domains in Sitecore?</t>
+  </si>
+  <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>How to authenticate API and authoritarian Sitecore Discover APIs?</t>
+  </si>
+  <si>
+    <t>2023-09-24</t>
+  </si>
+  <si>
+    <t>How to Hide/Show a Workflow Command and State for certain Users in Sitecore?</t>
+  </si>
+  <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>Introducing Sitecore Stream: A New Era of AI-Driven Marketing</t>
+  </si>
+  <si>
+    <t>2024-10-29</t>
+  </si>
+  <si>
+    <t>What is a CI/CD Pipeline? How does it work?</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>How to change the workflow in existing items using the PowerShell Script?</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>How to create email contacts and send them using Sitecore Send?</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>How to set up custom validation for the field Tree List in Sitecore?</t>
+  </si>
+  <si>
+    <t>2023-05-19</t>
+  </si>
+  <si>
+    <t>How to reset the password of Sitecore Admin User?</t>
+  </si>
+  <si>
+    <t>2023-05-10</t>
+  </si>
+  <si>
+    <t>What is OrderCloud? Basic Terminologies of Sitecore OrderCloud</t>
+  </si>
+  <si>
+    <t>2023-04-21</t>
+  </si>
+  <si>
+    <t>What is Sitecore Job Scheduler?</t>
+  </si>
+  <si>
+    <t>2023-03-24</t>
+  </si>
+  <si>
+    <t>How to disable the Lock and Edit buttons in Sitecore?</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>Beyond PDFs: Smarter Lead Generation Strategies for 2025</t>
+  </si>
+  <si>
+    <t>2025-06-13</t>
+  </si>
+  <si>
+    <t>Sitecore Digital Marketing</t>
+  </si>
+  <si>
+    <t>What is Sitecore Content Hub? What's new in the latest version?</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
+    <t>A guide to Sitecore Header Navigation</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>What is Sitecore Bucket? How to Customize Bucket Rules?</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>How to change the Rich Text Editor Configuration in Sitecore?</t>
+  </si>
+  <si>
+    <t>2023-04-12</t>
+  </si>
+  <si>
+    <t>What is omnichannel personalization? Strategies in Marketing</t>
+  </si>
+  <si>
+    <t>2024-05-07</t>
+  </si>
+  <si>
+    <t>How does Sitecore CMS impact and benefit marketers and tech teams?</t>
+  </si>
+  <si>
+    <t>2024-05-02</t>
+  </si>
+  <si>
+    <t>Accelerate your Marketing life cycle using Sitecore AI</t>
+  </si>
+  <si>
+    <t>2024-05-01</t>
+  </si>
+  <si>
+    <t>Sitecore Commerce Personalization: Tailoring Shopping Experiences for Every Customer</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>Sitecore Personalization Strategies for B2B Websites</t>
+  </si>
+  <si>
+    <t>2024-04-12</t>
+  </si>
+  <si>
+    <t>How can Sitecore Personalization benefit your e-commerce business?</t>
+  </si>
+  <si>
+    <t>2024-03-27</t>
+  </si>
+  <si>
+    <t>What you can expect from Sitecore OrderCloud in 2024?</t>
+  </si>
+  <si>
+    <t>2024-01-22</t>
+  </si>
+  <si>
+    <t>How to manage personalization and build customer trust using Sitecore?</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
+  </si>
+  <si>
+    <t>How to get started with composable commerce using Sitecore?</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>Everything new with Sitecore Send</t>
+  </si>
+  <si>
+    <t>2023-10-25</t>
+  </si>
+  <si>
+    <t>Top 10 must-have Features for your Website Search</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>Why should you go for a composable DXP?</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>Leveraging the power of Personalization and Generative AI through Sitecore</t>
+  </si>
+  <si>
+    <t>2023-09-23</t>
+  </si>
+  <si>
+    <t>The Role of Sitecore in Content Marketing: Strategies for Success</t>
+  </si>
+  <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
+    <t>Using Sitecore CDP to master the Art of Connected Marketing Automation</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>The power of Sitecore XM Cloud in transforming Marketing Operations</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>Leverage the Power of Sitecore XM Cloud and Modernize the Customer Experience</t>
+  </si>
+  <si>
+    <t>2023-07-21</t>
+  </si>
+  <si>
+    <t>Top 4 Smart Mover Strategies by Sitecore to dominate digital moments</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>From Beginners to Pros: Navigating Personalization through Sitecore</t>
+  </si>
+  <si>
+    <t>2023-06-16</t>
+  </si>
+  <si>
+    <t>Top reasons why Sitecore Personalize is the best alternative to Google Optimize</t>
+  </si>
+  <si>
+    <t>2023-05-04</t>
+  </si>
+  <si>
+    <t>Get started with Sitecore Personalize – Features and Benefits</t>
+  </si>
+  <si>
+    <t>2023-04-18</t>
+  </si>
+  <si>
+    <t>How to manage, scale, and automate your email campaign using Sitecore Send?</t>
+  </si>
+  <si>
+    <t>2023-04-04</t>
+  </si>
+  <si>
+    <t>Sitecore Content Hub DAM Vs Sitecore Content Hub One</t>
+  </si>
+  <si>
+    <t>2023-03-15</t>
+  </si>
+  <si>
+    <t>Simplify your Search: The top benefits of Sitecore Search</t>
+  </si>
+  <si>
+    <t>Top 3 ways to meet customers’ changing content needs in 2023</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>Why should you go for Sitecore Content Hub DAM?</t>
+  </si>
+  <si>
+    <t>2023-01-19</t>
+  </si>
+  <si>
+    <t>Why Cloud CMS is the future of Marketing?</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>Discover Capabilities: A guide for beginners</t>
+  </si>
+  <si>
+    <t>2022-12-03</t>
+  </si>
+  <si>
+    <t>What is Sitecore Discover? Key Features of Sitecore Discover</t>
+  </si>
+  <si>
+    <t>2022-12-21</t>
+  </si>
+  <si>
+    <t>What is Sitecore Send’s Audience Discovery?</t>
+  </si>
+  <si>
+    <t>2022-12-22</t>
+  </si>
+  <si>
+    <t>What? How? Why? Everything answered about Personalization!</t>
+  </si>
+  <si>
+    <t>2022-11-14</t>
+  </si>
+  <si>
+    <t>What is Sitecore 360? How can it benefit your business?</t>
+  </si>
+  <si>
+    <t>2022-10-27</t>
+  </si>
+  <si>
+    <t>How can Sitecore CDP help in e-commerce Segmentation?</t>
+  </si>
+  <si>
+    <t>2022-10-21</t>
+  </si>
+  <si>
+    <t>How can marketers win back customers through Sitecore?</t>
+  </si>
+  <si>
+    <t>2022-09-19</t>
+  </si>
+  <si>
+    <t>How does your SEO benefit from personalization?</t>
+  </si>
+  <si>
+    <t>2022-09-22</t>
+  </si>
+  <si>
+    <t>Google Analytics Custom Implementation</t>
+  </si>
+  <si>
+    <t>2022-09-07</t>
+  </si>
+  <si>
+    <t>A Glimpse into Sitecore Symposium 2022</t>
+  </si>
+  <si>
+    <t>2022-11-01</t>
+  </si>
+  <si>
+    <t>A Different Approach Towards Digital Experience at Sitecore</t>
+  </si>
+  <si>
+    <t>2022-08-09</t>
+  </si>
+  <si>
+    <t>How To Successfully Implement A Customer Data Platform (CDP)?</t>
+  </si>
+  <si>
+    <t>2022-08-04</t>
+  </si>
+  <si>
+    <t>How does personalization impact consumer decisions?</t>
+  </si>
+  <si>
+    <t>How Customer Data Platforms (CDP) reduce Shopping cart abandonment?</t>
+  </si>
+  <si>
+    <t>2022-07-25</t>
+  </si>
+  <si>
+    <t>What is Digital Transformation? How can Sitecore help businesses with it?</t>
+  </si>
+  <si>
+    <t>2022-07-22</t>
+  </si>
+  <si>
+    <t>What is Hyper-personalization? how sitecore Hyper-personalization help you in your business</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>Addact Technologies Receives 5-Star Rating on B2B Platform Clutch</t>
+  </si>
+  <si>
+    <t>2021-10-12</t>
+  </si>
+  <si>
+    <t>Addact Technologies’s Mr. Ketan Garala and Mr. Maulik Dudharejia Named Sitecore Most Valuable Professional</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>Conquer the “Post Pandemic” World with Revolutionary 10th Version of Sitecore Solutions</t>
+  </si>
+  <si>
+    <t>How Headless CMS and AI Integration are Transforming Kentico Technology?</t>
+  </si>
+  <si>
+    <t>Addact</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>Contentful Version History and Features</t>
+  </si>
+  <si>
+    <t>Headless</t>
+  </si>
+  <si>
+    <t>Are you facing “Complex Digital Challenges”? – Answer is Sitecore</t>
+  </si>
+  <si>
+    <t>2018-11-03</t>
+  </si>
+  <si>
+    <t>Sitecore Experience Platform 10 - A Developer’s Delight &amp; A Marketer’s Paradise</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>Sitecore Marketing Consultancy</t>
+  </si>
+  <si>
+    <t>Sitecore Experience Conference 2020- the Future is all about Humanising the Brand</t>
+  </si>
+  <si>
+    <t>2020-03-25</t>
+  </si>
+  <si>
+    <t>Accelerate Growth and Increase Profitability Mileage of your Automobile Reseller Business with Sitecore (For UK Markets)</t>
+  </si>
+  <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>Sitecore &amp; Personalisation - Indeed The best duo of the Decade!</t>
+  </si>
+  <si>
+    <t>2020-02-04</t>
+  </si>
+  <si>
+    <t>Digital strategy all sorted using Sitecore Experience Platform</t>
+  </si>
+  <si>
+    <t>2018-11-14</t>
+  </si>
+  <si>
+    <t>Redirect HTTP to HTTPS in Azure app service on the Sitecore website</t>
+  </si>
+  <si>
+    <t>2022-11-18</t>
+  </si>
+  <si>
+    <t>Sitecore Database Upgradation Process</t>
+  </si>
+  <si>
+    <t>2022-08-02</t>
+  </si>
+  <si>
+    <t>Computed SOLR Index Fields</t>
+  </si>
+  <si>
+    <t>2022-09-14</t>
+  </si>
+  <si>
+    <t>The Ultimate Guide to choose Sitecore CMS for your business!</t>
+  </si>
+  <si>
+    <t>2022-09-01</t>
+  </si>
+  <si>
+    <t>Sitecore Item Publish using Code (Programmatically)</t>
+  </si>
+  <si>
+    <t>2022-08-18</t>
+  </si>
+  <si>
+    <t>OrderCloud Checkout Flow</t>
+  </si>
+  <si>
+    <t>2022-10-06</t>
+  </si>
+  <si>
+    <t>Using Glass Mapper Item/Datasource children getting null</t>
+  </si>
+  <si>
+    <t>How to set up Sitecore Multisite Configurations?</t>
+  </si>
+  <si>
+    <t>2022-09-02</t>
+  </si>
+  <si>
+    <t>Sitecore Content Hub (DAM) Setup &amp; Integration with Sitecore 10.2 XP/XM</t>
+  </si>
+  <si>
+    <t>2022-04-17</t>
+  </si>
+  <si>
+    <t>Sitecore Item/Field Fallback Script and Configuration</t>
+  </si>
+  <si>
+    <t>2022-08-08</t>
+  </si>
+  <si>
+    <t>Kontent.ai Version History and Features</t>
+  </si>
+  <si>
+    <t>Contentstack Version History and Features</t>
+  </si>
+  <si>
+    <t>Virto Commerce Version History and Features</t>
+  </si>
+  <si>
+    <t>Why should you go for Kentico CMS for your business?</t>
+  </si>
+  <si>
+    <t>Why does your Kentico website need a Kentico Consultant?</t>
+  </si>
+  <si>
+    <t>Why should you go for Contentful CMS for your business?</t>
+  </si>
+  <si>
+    <t>Why does your Kontent.ai website need a Kontent.ai consultant?</t>
+  </si>
+  <si>
+    <t>Why does your Contentful website need a Contentful consultant?</t>
+  </si>
+  <si>
+    <t>Top Advantages of Outsourcing CMS Development for Business Success</t>
+  </si>
+  <si>
+    <t>How to Choose the Best Kentico Development Company</t>
+  </si>
+  <si>
+    <t>Kentico vs WordPress: A Comprehensive Comparison Guide</t>
+  </si>
+  <si>
+    <t>Know Everything About Kentico License Cost with us!</t>
+  </si>
+  <si>
+    <t>Kentico Version History and Features</t>
+  </si>
+  <si>
+    <t>Umbraco Version History and Features</t>
+  </si>
+  <si>
+    <t>The Future of Digital Experiences: Emerging Technologies and Innovations</t>
+  </si>
+  <si>
+    <t>Digital Experience</t>
+  </si>
+  <si>
+    <t>Kontent.ai - Empowering your Content Management Process</t>
+  </si>
+  <si>
+    <t>Content Experience</t>
+  </si>
+  <si>
+    <t>Why should you go for Kontent.ai for your business?</t>
+  </si>
+  <si>
+    <t>A step-by-step guide on how to install Sitecore 10.3 using SIA</t>
+  </si>
+  <si>
+    <t>2023-02-14</t>
+  </si>
+  <si>
+    <t>Sitecore Installation</t>
+  </si>
+  <si>
+    <t>Sitecore Headless 10.2 Without Docker</t>
+  </si>
+  <si>
+    <t>2024-03-24</t>
+  </si>
+  <si>
+    <t>A step by step guide to install a docker</t>
+  </si>
+  <si>
+    <t>2022-07-27</t>
+  </si>
+  <si>
+    <t>The Role of Sitecore CDP in Customer Experience Management</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>Sitecore Customization</t>
+  </si>
+  <si>
+    <t>Deploying XM Cloud: Static Site Deployment with Netlify CLI</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>Sitecore Commerce - Module Level Customization</t>
+  </si>
+  <si>
+    <t>Sitecore 9.1 : Installation Issue</t>
+  </si>
+  <si>
+    <t>2018-12-06</t>
+  </si>
+  <si>
+    <t>Sitecore as SaaS- an Opportunity that you cannot PASS!</t>
+  </si>
+  <si>
+    <t>2019-11-29</t>
+  </si>
+  <si>
+    <t>Sitecore Commerce 9.2 Installation</t>
+  </si>
+  <si>
+    <t>Installation guide - Sitecore experience platform 10.0 including Horizon and DAM</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>Identify content gaps with 3 simple way and fill them</t>
+  </si>
+  <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
+    <t>Sitecore Basics</t>
+  </si>
+  <si>
+    <t>Sitecore Version History and Features</t>
+  </si>
+  <si>
+    <t>2022-09-09</t>
+  </si>
+  <si>
+    <t>Key Differences between Sitecore Versions 8, 9 and 10</t>
+  </si>
+  <si>
+    <t>2022-12-07</t>
+  </si>
+  <si>
+    <t>Sitecore Development Options, Training, Guidelines, and Resources</t>
+  </si>
+  <si>
+    <t>2023-03-20</t>
+  </si>
+  <si>
+    <t>Sitecore Symposium 2024: Detailed Information</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>How to resolve the installation issue in Sitecore XP/XM 10.2?</t>
+  </si>
+  <si>
+    <t>2023-03-21</t>
+  </si>
+  <si>
+    <t>What is Sitecore? A beginner’s guide to Sitecore</t>
+  </si>
+  <si>
+    <t>2021-09-13</t>
+  </si>
+  <si>
+    <t>Sitecore Experience Platform 10.2.0 | Features, Changes, Issues</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>What are Sitecore Templates?</t>
+  </si>
+  <si>
+    <t>2022-12-15</t>
+  </si>
+  <si>
+    <t>Sitecore Serialization Tools</t>
+  </si>
+  <si>
+    <t>2022-12-16</t>
+  </si>
+  <si>
+    <t>Headless CMS vs Traditional CMS: Key Differences &amp; Why It Matters</t>
+  </si>
+  <si>
+    <t>Umbraco</t>
+  </si>
+  <si>
+    <t>The Role of Content in enhancing Digital Experiences</t>
+  </si>
+  <si>
+    <t>Contentful CMS: A Beginner's Guide</t>
+  </si>
+  <si>
+    <t>Umbraco Cloud vs. Self-Hosted: Which Hosting Model Fits Your Business?</t>
+  </si>
+  <si>
+    <t>How Umbraco Empowers Councils with a Flexible and Secure DXP</t>
+  </si>
+  <si>
+    <t>2019-06-25</t>
+  </si>
+  <si>
+    <t>How can you be a Sitecore Developer?</t>
+  </si>
+  <si>
+    <t>2019-08-05</t>
+  </si>
+  <si>
+    <t>Drupal and Sitecore Comparative Review</t>
+  </si>
+  <si>
+    <t>2019-09-06</t>
+  </si>
+  <si>
+    <t>Sitecore Experience Platform 9.3 Initial Release</t>
+  </si>
+  <si>
+    <t>2019-12-03</t>
+  </si>
+  <si>
+    <t>Umbraco 12 Set up and Installation Guide</t>
+  </si>
+  <si>
+    <t>User Experience</t>
+  </si>
+  <si>
+    <t>Sitecore 9.x Custom Link Provider</t>
+  </si>
+  <si>
+    <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>How to install and configure Sitecore CLI?</t>
+  </si>
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>A Guide to Sitecore Experience Manager Cloud</t>
+  </si>
+  <si>
+    <t>2022-07-21</t>
+  </si>
+  <si>
+    <t>Content Crisis Ends Here</t>
+  </si>
+  <si>
+    <t>2020-01-16</t>
+  </si>
+  <si>
+    <t>Switch on Rebuild index on Docker</t>
+  </si>
+  <si>
+    <t>2022-05-25</t>
+  </si>
+  <si>
+    <t>What to choose Sitecore Solution?</t>
+  </si>
+  <si>
+    <t>2021-03-05</t>
+  </si>
+  <si>
+    <t>Umbraco Engage: Turning Clicks into Connections</t>
+  </si>
+  <si>
+    <t>Create Sitecore JSS React Application and Apply Personalization</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>Kentico to Umbraco Migration: A Complete Guide for Seamless Transition</t>
+  </si>
+  <si>
+    <t>A Step-by-Step Guide to Migrating from WordPress to Strapi</t>
+  </si>
+  <si>
+    <t>Strapi</t>
+  </si>
+  <si>
+    <t>Hire Strapi Developers-Deploying Strapi to Production: Best Practices &amp; Considerations</t>
+  </si>
+  <si>
+    <t>How to manage relation fields in Strapi CMS?</t>
+  </si>
+  <si>
+    <t>A Comprehensive Guide for Strapi Development Service</t>
+  </si>
+  <si>
+    <t>The Future of Multilingual Web Development: Smarter, Faster, Global</t>
+  </si>
+  <si>
+    <t>2025-07-02</t>
+  </si>
+  <si>
+    <t>Strapi Version History and Features</t>
+  </si>
+  <si>
+    <t>Why does your Strapi website need a Strapi consultant?</t>
+  </si>
+  <si>
+    <t>Benefits of Choosing Strapi Development Company</t>
+  </si>
+  <si>
+    <t>How you can leverage Headless Architecture to enable AI?</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>The Future of Umbraco Development: How AI is Transforming CMS Platforms</t>
+  </si>
+  <si>
+    <t>Know everything about uSkinned vs. Custom Umbraco Websites</t>
+  </si>
+  <si>
+    <t>Top 10 Benefits of Moving to Umbraco Cloud</t>
+  </si>
+  <si>
+    <t>Steps of Migration from Drupal to Umbraco CMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umbraco and Salesforce Integration-Step by Step Guide </t>
+  </si>
+  <si>
     <t>How to configure NuGet file in CI/CD?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mitesh Patel - Technical Head</t>
-  </si>
-  <si>
     <t>2023-11-16</t>
   </si>
   <si>
-    <t>Sitecore Implementation</t>
-  </si>
-  <si>
-    <t>How to manage the IIS Website via the release pipeline?</t>
-  </si>
-  <si>
-    <t>2023-11-11</t>
-  </si>
-  <si>
-    <t>How to solve the GitHub Long-path Error?</t>
-  </si>
-  <si>
-    <t>2023-11-23</t>
-  </si>
-  <si>
-    <t>How to install Powershell in Sitecore XP Version?</t>
-  </si>
-  <si>
-    <t>2023-11-02</t>
-  </si>
-  <si>
-    <t>How to Unlock Solr Index and cause of Index being locked?</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>How to implement Google ReCAPTCHA Field in Sitecore form?</t>
-  </si>
-  <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
-    <t>Top 10 Benefits of Sitecore Development for Better User Experience</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>Sitecore Advantage</t>
-  </si>
-  <si>
-    <t>How to conduct Deployment Groups Configuration for CI/CD?</t>
-  </si>
-  <si>
-    <t>2023-10-19</t>
-  </si>
-  <si>
-    <t>How to trigger Continuous deployment for CI/CD pipeline?</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
-    <t>How to apply query in tree list in Sitecore?</t>
-  </si>
-  <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
-    <t>How to Implement the Sitecore the Right Way the First Time</t>
-  </si>
-  <si>
-    <t>Maulik Dudharejia - Co-Founder &amp; CMO - ADDACT</t>
-  </si>
-  <si>
-    <t>2021-12-07</t>
-  </si>
-  <si>
-    <t>Sitecore Failed to start service 'Sitecore Marketing Automation Engine’ in windows 11 Error | Solution</t>
-  </si>
-  <si>
-    <t>2022-07-14</t>
-  </si>
-  <si>
-    <t>How to implement SOLR Search Code in Sitecore?</t>
-  </si>
-  <si>
-    <t>2023-05-09</t>
-  </si>
-  <si>
-    <t>An Introduction to Sitecore Managed Cloud</t>
-  </si>
-  <si>
-    <t>2023-08-08</t>
-  </si>
-  <si>
-    <t>How to use cache for the storing list of items?</t>
-  </si>
-  <si>
-    <t>2023-09-26</t>
-  </si>
-  <si>
-    <t>How to create a scheduled task to execute a PowerShell Script Using Sitecore Task Scheduler?</t>
-  </si>
-  <si>
-    <t>2023-10-02</t>
-  </si>
-  <si>
-    <t>How IQueryable and Take Can Kill Your Sitecore Solution?</t>
-  </si>
-  <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
-    <t>How to Create Custom Command in Sitecore CMS?</t>
-  </si>
-  <si>
-    <t>2023-10-06</t>
-  </si>
-  <si>
-    <t>Sitecore Experience Platform 10.3 Updates and Features</t>
-  </si>
-  <si>
-    <t>Jayesh Kapadi</t>
-  </si>
-  <si>
-    <t>2023-10-15</t>
-  </si>
-  <si>
-    <t>Sitecore Personalization - Planning &amp; Designing</t>
-  </si>
-  <si>
-    <t>2019-12-13</t>
-  </si>
-  <si>
-    <t>Create Sitecore Commerce Plug-in</t>
-  </si>
-  <si>
-    <t>2019-12-16</t>
-  </si>
-  <si>
-    <t>Cross-functional Sitecore Certified Team</t>
-  </si>
-  <si>
-    <t>2020-01-08</t>
-  </si>
-  <si>
-    <t>5 Ways to ensure that your Sitecore Development Project is in the hands oaf the Experts</t>
-  </si>
-  <si>
-    <t>2025-01-10</t>
-  </si>
-  <si>
-    <t>COVEO to Solr Migration</t>
-  </si>
-  <si>
-    <t>2020-01-20</t>
-  </si>
-  <si>
-    <t>5 Ways Effective Sitecore Commerce Implementation can Optimize Online Sales</t>
-  </si>
-  <si>
-    <t>2020-01-28</t>
-  </si>
-  <si>
-    <t>5 Reasons why Addact is an Ideal Technology Partner for your Sitecore Project</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>Evolve Your Digital Space with Addact’s Sitecore Implementation Audit</t>
-  </si>
-  <si>
-    <t>2020-02-26</t>
-  </si>
-  <si>
-    <t>Custom Sitecore Field Validation | Sitecore Implementation</t>
-  </si>
-  <si>
-    <t>2021-01-01</t>
-  </si>
-  <si>
-    <t>Sitecore Forms display issue in Form Manager</t>
-  </si>
-  <si>
-    <t>2021-07-08</t>
-  </si>
-  <si>
-    <t>Implementing Amazon CloudFront CDN to deliver Sitecore Media</t>
-  </si>
-  <si>
-    <t>2019-04-29</t>
-  </si>
-  <si>
-    <t>Improve Your CRM with Sitecore Consulting - A Guide</t>
-  </si>
-  <si>
-    <t>2024-06-30</t>
-  </si>
-  <si>
-    <t>Sitecore Services</t>
-  </si>
-  <si>
-    <t>How to Migrate from a Legacy CMS to Sitecore: Challenges &amp; Solutions</t>
-  </si>
-  <si>
-    <t>2025-02-18</t>
-  </si>
-  <si>
-    <t>How to Choose a Sitecore Development Partner</t>
-  </si>
-  <si>
-    <t>2024-12-20</t>
-  </si>
-  <si>
-    <t>How AI is Integrated with Sitecore and the Rise of AI-Powered Search</t>
-  </si>
-  <si>
-    <t>Upasana Joshi</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>Sitecore CMS Explained: Top 9 Features Everyone Should Know!</t>
-  </si>
-  <si>
-    <t>2025-05-16</t>
-  </si>
-  <si>
-    <t>Sitecore Content Cloud: The Future of Scalable and Seamless Digital Content Management</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>Step-by-Step Guide for WordPress to Sitecore Migration</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>Achieve Digital Success with Addact's Sitecore Consulting Services</t>
-  </si>
-  <si>
-    <t>2024-10-15</t>
-  </si>
-  <si>
-    <t>Know Everything About Sitecore Implementation Costs</t>
-  </si>
-  <si>
-    <t>2024-08-26</t>
-  </si>
-  <si>
-    <t>Sitecore Outsourcing: An Overview and the Benefits</t>
-  </si>
-  <si>
-    <t>2024-06-25</t>
-  </si>
-  <si>
-    <t>Sitecore Technical Consultancy</t>
-  </si>
-  <si>
-    <t>2020-07-01</t>
-  </si>
-  <si>
-    <t>Sitecore XP 9.3 – New features &amp; highlights</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>Sitecore Consultation: Customizing the Platform to Fit Your Unique Needs</t>
-  </si>
-  <si>
-    <t>2023-07-20</t>
-  </si>
-  <si>
-    <t>How Sitecore Consultants enhance Personalization and Customer Engagement?</t>
-  </si>
-  <si>
-    <t>2023-06-19</t>
-  </si>
-  <si>
-    <t>Best practices to remotely hire Sitecore Developers in 2023</t>
-  </si>
-  <si>
-    <t>Nimesh Hadiyel</t>
-  </si>
-  <si>
-    <t>2023-02-27</t>
-  </si>
-  <si>
-    <t>Offshore vs Onshore dedicated developer teams: how to choose?</t>
-  </si>
-  <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
-    <t>Why do you need to upgrade to Sitecore 8 for your website in 2022?</t>
-  </si>
-  <si>
-    <t>2022-10-18</t>
-  </si>
-  <si>
-    <t>Checklist for an upgrade to Sitecore 9 to Sitecore 10</t>
-  </si>
-  <si>
-    <t>2021-11-15</t>
-  </si>
-  <si>
-    <t>Sitecore commerce omnichannel?</t>
-  </si>
-  <si>
-    <t>2021-11-12</t>
-  </si>
-  <si>
-    <t>Sitecore XM Cloud Components Guide</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>XM Cloud</t>
-  </si>
-  <si>
-    <t>Sitecore Managed Service Partner: An Overview &amp; Approach Addact</t>
-  </si>
-  <si>
-    <t>2019-02-18</t>
-  </si>
-  <si>
-    <t>Personalization in: XP vs XM Cloud vs Sitecore Personalize; A complete guide</t>
-  </si>
-  <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
-    <t>How to Set Up Date-Specific Personalization in Sitecore XM Cloud</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>Sitecore XM Cloud Pricing and Key Insights</t>
-  </si>
-  <si>
-    <t>2025-01-16</t>
-  </si>
-  <si>
-    <t>XMCloud Page.io Error - The remote server returned an error: (413) Body exceed 2MB limit</t>
-  </si>
-  <si>
-    <t>2024-08-21</t>
-  </si>
-  <si>
-    <t>Sitecore Storefront- World’s Best Personalized Commerce Platform!</t>
-  </si>
-  <si>
-    <t>2019-12-17</t>
-  </si>
-  <si>
-    <t>Sitecore Commerce Integration with View and Action API</t>
-  </si>
-  <si>
-    <t>2020-01-13</t>
-  </si>
-  <si>
-    <t>Transition from legacy Sitecore Experience commerce to Sitecore XC9 and employ Extreme Flexibility and Scalability</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>Sitecore Experience Cloud Transforms Digital Experiences</t>
-  </si>
-  <si>
-    <t>2020-06-15</t>
-  </si>
-  <si>
-    <t>How to use Sitecore Log Analyzer Tool?</t>
-  </si>
-  <si>
-    <t>2023-08-10</t>
-  </si>
-  <si>
-    <t>Sitecore Training</t>
-  </si>
-  <si>
-    <t>Conquering Connections: SSMS to Docker SQL Server for XM Cloud</t>
-  </si>
-  <si>
-    <t>2024-01-24</t>
-  </si>
-  <si>
-    <t>Why Sitecore CMS is the best CMS for Multilingual Websites?</t>
-  </si>
-  <si>
-    <t>2023-09-12</t>
-  </si>
-  <si>
-    <t>Sitecore Layout Service: Custom Rendering &amp; Custom Contents Resolvers</t>
-  </si>
-  <si>
-    <t>2023-09-20</t>
-  </si>
-  <si>
-    <t>XM Sitecore Development Mistakes to Avoid</t>
-  </si>
-  <si>
-    <t>2024-07-08</t>
-  </si>
-  <si>
-    <t>Migrating from Sitecore XP to XM Cloud with ADDACT</t>
-  </si>
-  <si>
-    <t>2024-07-04</t>
-  </si>
-  <si>
-    <t>Securing Your Sitecore Development: Connecting Dockerized SQL to XM Cloud</t>
-  </si>
-  <si>
-    <t>2024-02-01</t>
-  </si>
-  <si>
-    <t>Securing Your Sitecore XM Cloud: User Creation with Granular Access Control</t>
-  </si>
-  <si>
-    <t>2024-01-25</t>
-  </si>
-  <si>
-    <t>How to restrict value type from field by custom rule validation?</t>
-  </si>
-  <si>
-    <t>2023-09-11</t>
-  </si>
-  <si>
-    <t>How to implement Faceted Search with Sitecore JSS?</t>
-  </si>
-  <si>
-    <t>2023-08-24</t>
-  </si>
-  <si>
-    <t>How to solve certificate chain error in Sitecore 10.x installation?</t>
-  </si>
-  <si>
-    <t>2023-08-02</t>
-  </si>
-  <si>
-    <t>Sitecore XM Cloud: Step by Step Guide for Local Environment Setup</t>
-  </si>
-  <si>
-    <t>2023-06-06</t>
-  </si>
-  <si>
-    <t>What are the best practices to follow as a Sitecore Developer?</t>
-  </si>
-  <si>
-    <t>2023-06-07</t>
-  </si>
-  <si>
-    <t>How to setup integrated mode in Sitecore Headless?</t>
-  </si>
-  <si>
-    <t>2023-06-14</t>
-  </si>
-  <si>
-    <t>How to add custom language in Sitecore?</t>
-  </si>
-  <si>
-    <t>2023-06-27</t>
-  </si>
-  <si>
-    <t>Project Configuration in XM Cloud: A Step-by-step Guide</t>
-  </si>
-  <si>
-    <t>2023-07-12</t>
-  </si>
-  <si>
-    <t>Creating Product Variants in Sitecore OrderCloud – A step-by-step guide</t>
-  </si>
-  <si>
-    <t>2023-07-13</t>
-  </si>
-  <si>
-    <t>How to Configure Language Fallback in Sitecore?</t>
-  </si>
-  <si>
-    <t>2023-07-17</t>
-  </si>
-  <si>
-    <t>How to configure SOLR cores in Sitecore SXA?</t>
-  </si>
-  <si>
-    <t>2023-07-24</t>
-  </si>
-  <si>
-    <t>How to Prevent Draft Stage Items from Getting Published in Sitecore?</t>
-  </si>
-  <si>
-    <t>2023-07-25</t>
-  </si>
-  <si>
-    <t>How to configure Redirect Rule?</t>
-  </si>
-  <si>
-    <t>2023-01-02</t>
-  </si>
-  <si>
-    <t>Special language characters not allowed in Sitecore 10.X Forms | Solution</t>
-  </si>
-  <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
-    <t>How to resolve “publishing HTML cache clearer” error while upgrading Sitecore?</t>
-  </si>
-  <si>
-    <t>2023-03-23</t>
-  </si>
-  <si>
-    <t>How to create new GraphQL endpoint with custom schema in Sitecore JSS?</t>
-  </si>
-  <si>
-    <t>2023-04-03</t>
-  </si>
-  <si>
-    <t>JSS application feature was not registered with Sitecore</t>
-  </si>
-  <si>
-    <t>How to Solve Sitecore Azure Log Clean-Up Agent Issue?</t>
-  </si>
-  <si>
-    <t>2023-04-20</t>
-  </si>
-  <si>
-    <t>How to update workflow using Powershell Script in Sitecore?</t>
-  </si>
-  <si>
-    <t>2023-05-01</t>
-  </si>
-  <si>
-    <t>Get Search Results for Singular and Plural words in your Sitecore Website</t>
-  </si>
-  <si>
-    <t>2023-05-16</t>
-  </si>
-  <si>
-    <t>How to set up Headless NextJS app in Disconnected Mode on Sitecore?</t>
-  </si>
-  <si>
-    <t>2023-05-25</t>
-  </si>
-  <si>
-    <t>How to set up Headless NextJS app in Connected Mode on Sitecore?</t>
-  </si>
-  <si>
-    <t>2023-05-26</t>
-  </si>
-  <si>
-    <t>Sitecore Website Security assessment</t>
-  </si>
-  <si>
-    <t>2022-11-24</t>
-  </si>
-  <si>
-    <t>Override Default Sitecore headless layout API</t>
-  </si>
-  <si>
-    <t>2022-11-23</t>
-  </si>
-  <si>
-    <t>Sitecore Azure web app Basic Authentication</t>
-  </si>
-  <si>
-    <t>2022-11-07</t>
-  </si>
-  <si>
-    <t>Sitecore Media URL not updating in CDN</t>
-  </si>
-  <si>
-    <t>2022-11-09</t>
-  </si>
-  <si>
-    <t>Null Reference Exception in Sitecore Signing Token Provider</t>
-  </si>
-  <si>
-    <t>2022-11-21</t>
-  </si>
-  <si>
-    <t>Sitecore vs Optimizely: A Guide to Selecting the Right DXP</t>
-  </si>
-  <si>
-    <t>2025-07-01</t>
-  </si>
-  <si>
-    <t>SOLR JVM Memory Getting Full</t>
-  </si>
-  <si>
-    <t>2022-11-17</t>
-  </si>
-  <si>
-    <t>Create SSL certificates for development websites</t>
-  </si>
-  <si>
-    <t>2022-11-16</t>
-  </si>
-  <si>
-    <t>Sitecore Implementation Best Practices</t>
-  </si>
-  <si>
-    <t>2022-11-04</t>
-  </si>
-  <si>
-    <t>Handler "AutowiredPageHandlerFactory" has a bad module "ManagedPipelineHandler" in its module list error on IIS</t>
-  </si>
-  <si>
-    <t>2022-10-11</t>
-  </si>
-  <si>
-    <t>Experience Editor fails with a ProfileCardsPanel.css script error in the console</t>
-  </si>
-  <si>
-    <t>2022-10-12</t>
-  </si>
-  <si>
-    <t>Integrate Next.js application to Sitecore Experience Editor</t>
-  </si>
-  <si>
-    <t>2022-11-02</t>
-  </si>
-  <si>
-    <t>Sitecore Security Best Practices: Safeguarding Your Digital Assets</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
     <t>Sitecore and A/B Testing: Optimizing Content and Design for Higher Conversions</t>
   </si>
   <si>
     <t>2024-03-19</t>
   </si>
   <si>
-    <t>Responsive Design with Sitecore: Ensuring a Mobile-Friendly Experience</t>
-  </si>
-  <si>
-    <t>Sitecore XP vs. Sitecore XM: Choosing the Right Experience for Your Business</t>
-  </si>
-  <si>
-    <t>2024-02-02</t>
-  </si>
-  <si>
-    <t>Sitecore Experience Editor unknown JSON error</t>
-  </si>
-  <si>
-    <t>2022-10-10</t>
-  </si>
-  <si>
-    <t>Benefits of Sitecore XM Cloud: Why it is the perfect fit for your business?</t>
-  </si>
-  <si>
-    <t>What is Sitecore used for? What are some of the best Sitecore features?</t>
-  </si>
-  <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
-    <t>Sitecore SXA: An Overview and Benefits of Sitecore's Experience Accelerator</t>
-  </si>
-  <si>
-    <t>Sitecore 10 Features you shouldn’t miss: A Comprehensive Overview</t>
-  </si>
-  <si>
-    <t>2023-12-01</t>
-  </si>
-  <si>
-    <t>Security in Sitecore: Best Practices for a Robust Digital Platform</t>
-  </si>
-  <si>
-    <t>2023-12-04</t>
-  </si>
-  <si>
-    <t>How Sitecore CDP holds together AI, ML and more technologies for driving your business!</t>
-  </si>
-  <si>
-    <t>2023-12-15</t>
-  </si>
-  <si>
-    <t>Sitecore vs Adobe vs Salesforce</t>
-  </si>
-  <si>
-    <t>2023-12-18</t>
-  </si>
-  <si>
-    <t>Improve your content lifecycle using the Sitecore Content Hub DAM</t>
-  </si>
-  <si>
-    <t>2023-12-19</t>
-  </si>
-  <si>
-    <t>Beyond Templates: Mastering Sitecore Personalization Strategies</t>
-  </si>
-  <si>
-    <t>2024-01-02</t>
-  </si>
-  <si>
-    <t>Sitecore Multisite Management: A Strategic Approach</t>
-  </si>
-  <si>
-    <t>2024-01-11</t>
-  </si>
-  <si>
-    <t>How can Sitecore XM Cloud help your business reduce total cost of ownership?</t>
-  </si>
-  <si>
-    <t>2023-07-19</t>
-  </si>
-  <si>
-    <t>Maximizing ROI with Sitecore: Key Insights from Consultation Experts</t>
-  </si>
-  <si>
-    <t>Innovative Web Solutions: Advancing Your Projects with Sitecore CMS Development</t>
-  </si>
-  <si>
-    <t>2023-08-14</t>
-  </si>
-  <si>
-    <t>Sitecore CMS: Harnessing the Full Potential of Personalization</t>
-  </si>
-  <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
-    <t>Sitecore Experience Editor: Tips and Tricks for Streamlining Content Editing</t>
-  </si>
-  <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>Sitecore Personalization with Machine Learning: How to deliver more relevant experiences?</t>
-  </si>
-  <si>
-    <t>2023-10-17</t>
-  </si>
-  <si>
-    <t>Sitecore Headless CMS vs Traditional CMS: Pros and Cons</t>
-  </si>
-  <si>
-    <t>2023-10-14</t>
-  </si>
-  <si>
-    <t>Sitecore Federated Experience Manager: A Guide to Managing Multisite Content</t>
-  </si>
-  <si>
-    <t>2023-09-28</t>
-  </si>
-  <si>
-    <t>Sitecore Content Hub: A Comprehensive Guide to Content Management</t>
-  </si>
-  <si>
-    <t>2023-08-22</t>
-  </si>
-  <si>
-    <t>Headless Ecommerce through Sitecore OrderCloud</t>
-  </si>
-  <si>
-    <t>2023-09-06</t>
-  </si>
-  <si>
-    <t>Sitecore CMS: Best Practices for Managing Large Scale Content</t>
-  </si>
-  <si>
-    <t>2023-06-20</t>
-  </si>
-  <si>
-    <t>Sitecore OrderCloud: Tips and Tricks for Optimizing Your Online Store</t>
-  </si>
-  <si>
-    <t>2023-07-18</t>
-  </si>
-  <si>
-    <t>Implement Effective SEO Strategies through Sitecore Consultation</t>
-  </si>
-  <si>
-    <t>2023-06-29</t>
-  </si>
-  <si>
-    <t>How can a Sitecore Consultant be helpful for your Sitecore Websites?</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>Why a Sitecore website needs a Sitecore Consultant?</t>
-  </si>
-  <si>
-    <t>2023-04-13</t>
-  </si>
-  <si>
-    <t>Who is a Sitecore CMS Consultant? What are their job duties?</t>
-  </si>
-  <si>
-    <t>2023-04-17</t>
-  </si>
-  <si>
-    <t>Everything you need to know about hiring the right Sitecore developers for your business!</t>
-  </si>
-  <si>
-    <t>2023-03-10</t>
-  </si>
-  <si>
-    <t>A guide to understanding a Composable DXP</t>
-  </si>
-  <si>
-    <t>2023-02-28</t>
-  </si>
-  <si>
-    <t>Hire Sitecore Developers: Pros, Cons, Challenges &amp; Alternatives</t>
-  </si>
-  <si>
-    <t>2023-02-08</t>
-  </si>
-  <si>
-    <t>What is Sitecore Connect?</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>Why do companies hire dedicated Sitecore Developers for their projects?</t>
-  </si>
-  <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
-    <t>What are the new features in Sitecore XP 10.3?</t>
-  </si>
-  <si>
-    <t>2022-12-27</t>
-  </si>
-  <si>
-    <t>What is Sitecore Search?</t>
-  </si>
-  <si>
-    <t>2022-12-02</t>
-  </si>
-  <si>
-    <t>What is Sitecore Content Hub One?</t>
-  </si>
-  <si>
-    <t>2022-12-01</t>
-  </si>
-  <si>
-    <t>Why do you need to upgrade to Sitecore 10 for your website?</t>
-  </si>
-  <si>
-    <t>2022-11-22</t>
-  </si>
-  <si>
-    <t>Why do you need to upgrade to Sitecore 9 for your website?</t>
-  </si>
-  <si>
-    <t>2022-11-08</t>
-  </si>
-  <si>
-    <t>Things to Consider while doing Sitecore Upgrade</t>
-  </si>
-  <si>
-    <t>2022-10-13</t>
-  </si>
-  <si>
-    <t>The Most Common Sitecore Maintenance Service Requests</t>
-  </si>
-  <si>
-    <t>2022-08-16</t>
-  </si>
-  <si>
-    <t>What is Sitecore A/B Testing? Importance of Sitecore A/B Testing</t>
-  </si>
-  <si>
-    <t>2022-07-07</t>
-  </si>
-  <si>
-    <t>What is eCommerce Catalog Management? Importance of Catalog Management</t>
-  </si>
-  <si>
-    <t>2022-05-30</t>
-  </si>
-  <si>
-    <t>Sitecore OrderCloud vs Sitecore Experience Commerce</t>
-  </si>
-  <si>
-    <t>2022-05-23</t>
-  </si>
-  <si>
-    <t>Go-to-market strategies supported by Sitecore OrderCloud</t>
-  </si>
-  <si>
-    <t>2022-05-12</t>
-  </si>
-  <si>
-    <t>How Sitecore Headless CMS benefits your E-Commerce Business</t>
-  </si>
-  <si>
-    <t>2022-04-20</t>
-  </si>
-  <si>
-    <t>What is Sitecore OrderCloud? Major features &amp; benefits</t>
-  </si>
-  <si>
-    <t>2022-04-04</t>
-  </si>
-  <si>
-    <t>Increase Customer Loyalty &amp; Trust using Sitecore CDP</t>
-  </si>
-  <si>
-    <t>2022-04-01</t>
-  </si>
-  <si>
-    <t>How Sitecore Support Services are beneficial for your business?</t>
-  </si>
-  <si>
-    <t>2022-07-28</t>
-  </si>
-  <si>
-    <t>Everything to know about a Customer Data Platform!</t>
-  </si>
-  <si>
-    <t>2022-03-25</t>
-  </si>
-  <si>
-    <t>What is Sitecore Experience Edge | Who will benefit</t>
-  </si>
-  <si>
-    <t>Cost Optimized Sitecore Environments in Azure</t>
-  </si>
-  <si>
-    <t>2021-06-16</t>
-  </si>
-  <si>
-    <t>6 Benefits of Sitecore CMS Support and Maintenance</t>
-  </si>
-  <si>
-    <t>2021-12-17</t>
-  </si>
-  <si>
-    <t>Sitecore Headless eCommerce solutions - Future for Enterprises</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
-  </si>
-  <si>
-    <t>Advantages of Sitecore integrated platforms</t>
-  </si>
-  <si>
-    <t>2021-05-14</t>
-  </si>
-  <si>
-    <t>Benefits of Sitecore commerce with Four51</t>
-  </si>
-  <si>
-    <t>2021-04-17</t>
-  </si>
-  <si>
-    <t>Defining Features of Sitecore Experience Commerce that Made Sitecore the People’s Choice</t>
-  </si>
-  <si>
-    <t>2020-02-11</t>
-  </si>
-  <si>
-    <t>How to elevate user experience on your Web Platform?</t>
-  </si>
-  <si>
-    <t>2018-11-22</t>
-  </si>
-  <si>
-    <t>A/B Testing Practical in Sitecore 9.2 with SXA</t>
-  </si>
-  <si>
-    <t>2019-12-12</t>
-  </si>
-  <si>
-    <t>Top 3 ways to store media in Sitecore Media Library</t>
-  </si>
-  <si>
-    <t>2023-06-22</t>
-  </si>
-  <si>
-    <t>Sitecore Learning</t>
-  </si>
-  <si>
-    <t>The Role of Sitecore in Your Digital Experience Platform (DXP)</t>
-  </si>
-  <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
-    <t>How to reset Sitecore items security settings from the item’s templates and standard values?</t>
-  </si>
-  <si>
-    <t>2023-09-25</t>
-  </si>
-  <si>
-    <t>How to configure multiple domains in Sitecore?</t>
-  </si>
-  <si>
-    <t>2023-08-01</t>
-  </si>
-  <si>
-    <t>How to authenticate API and authoritarian Sitecore Discover APIs?</t>
-  </si>
-  <si>
-    <t>2023-09-24</t>
-  </si>
-  <si>
-    <t>How to Hide/Show a Workflow Command and State for certain Users in Sitecore?</t>
-  </si>
-  <si>
-    <t>2023-07-28</t>
-  </si>
-  <si>
-    <t>Introducing Sitecore Stream: A New Era of AI-Driven Marketing</t>
-  </si>
-  <si>
-    <t>2024-10-29</t>
-  </si>
-  <si>
-    <t>What is a CI/CD Pipeline? How does it work?</t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>How to change the workflow in existing items using the PowerShell Script?</t>
-  </si>
-  <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
-    <t>How to create email contacts and send them using Sitecore Send?</t>
-  </si>
-  <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
-    <t>How to set up custom validation for the field Tree List in Sitecore?</t>
-  </si>
-  <si>
-    <t>2023-05-19</t>
-  </si>
-  <si>
-    <t>How to reset the password of Sitecore Admin User?</t>
-  </si>
-  <si>
-    <t>2023-05-10</t>
-  </si>
-  <si>
-    <t>What is OrderCloud? Basic Terminologies of Sitecore OrderCloud</t>
-  </si>
-  <si>
-    <t>2023-04-21</t>
-  </si>
-  <si>
-    <t>What is Sitecore Job Scheduler?</t>
-  </si>
-  <si>
-    <t>2023-03-24</t>
-  </si>
-  <si>
-    <t>How to disable the Lock and Edit buttons in Sitecore?</t>
-  </si>
-  <si>
-    <t>2023-01-09</t>
-  </si>
-  <si>
-    <t>Beyond PDFs: Smarter Lead Generation Strategies for 2025</t>
-  </si>
-  <si>
-    <t>2025-06-13</t>
-  </si>
-  <si>
-    <t>Sitecore Digital Marketing</t>
-  </si>
-  <si>
-    <t>What is Sitecore Content Hub? What's new in the latest version?</t>
-  </si>
-  <si>
-    <t>2024-05-13</t>
-  </si>
-  <si>
-    <t>A guide to Sitecore Header Navigation</t>
-  </si>
-  <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>What is Sitecore Bucket? How to Customize Bucket Rules?</t>
-  </si>
-  <si>
-    <t>2023-06-05</t>
-  </si>
-  <si>
-    <t>How to change the Rich Text Editor Configuration in Sitecore?</t>
-  </si>
-  <si>
-    <t>2023-04-12</t>
-  </si>
-  <si>
-    <t>What is omnichannel personalization? Strategies in Marketing</t>
-  </si>
-  <si>
-    <t>2024-05-07</t>
-  </si>
-  <si>
-    <t>How does Sitecore CMS impact and benefit marketers and tech teams?</t>
-  </si>
-  <si>
-    <t>2024-05-02</t>
-  </si>
-  <si>
-    <t>Accelerate your Marketing life cycle using Sitecore AI</t>
-  </si>
-  <si>
-    <t>2024-05-01</t>
-  </si>
-  <si>
-    <t>Sitecore Commerce Personalization: Tailoring Shopping Experiences for Every Customer</t>
-  </si>
-  <si>
-    <t>2024-04-16</t>
-  </si>
-  <si>
-    <t>Sitecore Personalization Strategies for B2B Websites</t>
-  </si>
-  <si>
-    <t>2024-04-12</t>
-  </si>
-  <si>
-    <t>How can Sitecore Personalization benefit your e-commerce business?</t>
-  </si>
-  <si>
-    <t>2024-03-27</t>
-  </si>
-  <si>
-    <t>What you can expect from Sitecore OrderCloud in 2024?</t>
-  </si>
-  <si>
-    <t>2024-01-22</t>
-  </si>
-  <si>
-    <t>How to manage personalization and build customer trust using Sitecore?</t>
-  </si>
-  <si>
-    <t>2024-01-16</t>
-  </si>
-  <si>
-    <t>How to get started with composable commerce using Sitecore?</t>
-  </si>
-  <si>
-    <t>2023-11-07</t>
-  </si>
-  <si>
-    <t>Everything new with Sitecore Send</t>
-  </si>
-  <si>
-    <t>2023-10-25</t>
-  </si>
-  <si>
-    <t>Top 10 must-have Features for your Website Search</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
-    <t>Why should you go for a composable DXP?</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
-    <t>Leveraging the power of Personalization and Generative AI through Sitecore</t>
-  </si>
-  <si>
-    <t>2023-09-23</t>
-  </si>
-  <si>
-    <t>The Role of Sitecore in Content Marketing: Strategies for Success</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
-    <t>Using Sitecore CDP to master the Art of Connected Marketing Automation</t>
-  </si>
-  <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
-    <t>The power of Sitecore XM Cloud in transforming Marketing Operations</t>
-  </si>
-  <si>
-    <t>2023-08-09</t>
-  </si>
-  <si>
-    <t>Leverage the Power of Sitecore XM Cloud and Modernize the Customer Experience</t>
-  </si>
-  <si>
-    <t>2023-07-21</t>
-  </si>
-  <si>
-    <t>Top 4 Smart Mover Strategies by Sitecore to dominate digital moments</t>
-  </si>
-  <si>
-    <t>2023-06-30</t>
-  </si>
-  <si>
-    <t>From Beginners to Pros: Navigating Personalization through Sitecore</t>
-  </si>
-  <si>
-    <t>2023-06-16</t>
-  </si>
-  <si>
-    <t>Top reasons why Sitecore Personalize is the best alternative to Google Optimize</t>
-  </si>
-  <si>
-    <t>2023-05-04</t>
-  </si>
-  <si>
-    <t>Get started with Sitecore Personalize – Features and Benefits</t>
-  </si>
-  <si>
-    <t>2023-04-18</t>
-  </si>
-  <si>
-    <t>How to manage, scale, and automate your email campaign using Sitecore Send?</t>
-  </si>
-  <si>
-    <t>2023-04-04</t>
-  </si>
-  <si>
-    <t>Sitecore Content Hub DAM Vs Sitecore Content Hub One</t>
-  </si>
-  <si>
-    <t>2023-03-15</t>
-  </si>
-  <si>
-    <t>Simplify your Search: The top benefits of Sitecore Search</t>
-  </si>
-  <si>
-    <t>Top 3 ways to meet customers’ changing content needs in 2023</t>
-  </si>
-  <si>
-    <t>2023-02-07</t>
-  </si>
-  <si>
-    <t>Why should you go for Sitecore Content Hub DAM?</t>
-  </si>
-  <si>
-    <t>2023-01-19</t>
-  </si>
-  <si>
-    <t>Why Cloud CMS is the future of Marketing?</t>
-  </si>
-  <si>
-    <t>2023-01-05</t>
-  </si>
-  <si>
-    <t>Discover Capabilities: A guide for beginners</t>
-  </si>
-  <si>
-    <t>2022-12-03</t>
-  </si>
-  <si>
-    <t>What is Sitecore Discover? Key Features of Sitecore Discover</t>
-  </si>
-  <si>
-    <t>2022-12-21</t>
-  </si>
-  <si>
-    <t>What is Sitecore Send’s Audience Discovery?</t>
-  </si>
-  <si>
-    <t>2022-12-22</t>
-  </si>
-  <si>
-    <t>What? How? Why? Everything answered about Personalization!</t>
-  </si>
-  <si>
-    <t>2022-11-14</t>
-  </si>
-  <si>
-    <t>What is Sitecore 360? How can it benefit your business?</t>
-  </si>
-  <si>
-    <t>2022-10-27</t>
-  </si>
-  <si>
-    <t>How can Sitecore CDP help in e-commerce Segmentation?</t>
-  </si>
-  <si>
-    <t>2022-10-21</t>
-  </si>
-  <si>
-    <t>How can marketers win back customers through Sitecore?</t>
-  </si>
-  <si>
-    <t>2022-09-19</t>
-  </si>
-  <si>
-    <t>How does your SEO benefit from personalization?</t>
-  </si>
-  <si>
-    <t>2022-09-22</t>
-  </si>
-  <si>
-    <t>Google Analytics Custom Implementation</t>
-  </si>
-  <si>
-    <t>2022-09-07</t>
-  </si>
-  <si>
-    <t>A Glimpse into Sitecore Symposium 2022</t>
-  </si>
-  <si>
-    <t>2022-11-01</t>
-  </si>
-  <si>
-    <t>A Different Approach Towards Digital Experience at Sitecore</t>
-  </si>
-  <si>
-    <t>2022-08-09</t>
-  </si>
-  <si>
-    <t>How To Successfully Implement A Customer Data Platform (CDP)?</t>
-  </si>
-  <si>
-    <t>2022-08-04</t>
-  </si>
-  <si>
-    <t>How does personalization impact consumer decisions?</t>
-  </si>
-  <si>
-    <t>How Customer Data Platforms (CDP) reduce Shopping cart abandonment?</t>
-  </si>
-  <si>
-    <t>2022-07-25</t>
-  </si>
-  <si>
-    <t>What is Digital Transformation? How can Sitecore help businesses with it?</t>
-  </si>
-  <si>
-    <t>2022-07-22</t>
-  </si>
-  <si>
-    <t>What is Hyper-personalization? how sitecore Hyper-personalization help you in your business</t>
-  </si>
-  <si>
-    <t>2022-06-07</t>
-  </si>
-  <si>
-    <t>Addact Technologies Receives 5-Star Rating on B2B Platform Clutch</t>
-  </si>
-  <si>
-    <t>2021-10-12</t>
-  </si>
-  <si>
-    <t>Addact Technologies’s Mr. Ketan Garala and Mr. Maulik Dudharejia Named Sitecore Most Valuable Professional</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>Conquer the “Post Pandemic” World with Revolutionary 10th Version of Sitecore Solutions</t>
-  </si>
-  <si>
-    <t>How Headless CMS and AI Integration are Transforming Kentico Technology?</t>
-  </si>
-  <si>
-    <t>Addact</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>Contentful Version History and Features</t>
-  </si>
-  <si>
-    <t>Headless</t>
-  </si>
-  <si>
-    <t>Are you facing “Complex Digital Challenges”? – Answer is Sitecore</t>
-  </si>
-  <si>
-    <t>2018-11-03</t>
-  </si>
-  <si>
-    <t>Sitecore Experience Platform 10 - A Developer’s Delight &amp; A Marketer’s Paradise</t>
-  </si>
-  <si>
-    <t>2020-08-12</t>
-  </si>
-  <si>
-    <t>Sitecore Marketing Consultancy</t>
-  </si>
-  <si>
-    <t>Sitecore Experience Conference 2020- the Future is all about Humanising the Brand</t>
-  </si>
-  <si>
-    <t>2020-03-25</t>
-  </si>
-  <si>
-    <t>Accelerate Growth and Increase Profitability Mileage of your Automobile Reseller Business with Sitecore (For UK Markets)</t>
-  </si>
-  <si>
-    <t>2020-03-23</t>
-  </si>
-  <si>
-    <t>Sitecore &amp; Personalisation - Indeed The best duo of the Decade!</t>
-  </si>
-  <si>
-    <t>2020-02-04</t>
-  </si>
-  <si>
-    <t>Digital strategy all sorted using Sitecore Experience Platform</t>
-  </si>
-  <si>
-    <t>2018-11-14</t>
-  </si>
-  <si>
-    <t>Redirect HTTP to HTTPS in Azure app service on the Sitecore website</t>
-  </si>
-  <si>
-    <t>2022-11-18</t>
-  </si>
-  <si>
-    <t>Sitecore Database Upgradation Process</t>
-  </si>
-  <si>
-    <t>2022-08-02</t>
-  </si>
-  <si>
-    <t>Computed SOLR Index Fields</t>
-  </si>
-  <si>
-    <t>2022-09-14</t>
-  </si>
-  <si>
-    <t>The Ultimate Guide to choose Sitecore CMS for your business!</t>
-  </si>
-  <si>
-    <t>2022-09-01</t>
-  </si>
-  <si>
-    <t>Sitecore Item Publish using Code (Programmatically)</t>
-  </si>
-  <si>
-    <t>2022-08-18</t>
-  </si>
-  <si>
-    <t>OrderCloud Checkout Flow</t>
-  </si>
-  <si>
-    <t>2022-10-06</t>
-  </si>
-  <si>
-    <t>Using Glass Mapper Item/Datasource children getting null</t>
-  </si>
-  <si>
-    <t>How to set up Sitecore Multisite Configurations?</t>
-  </si>
-  <si>
-    <t>2022-09-02</t>
-  </si>
-  <si>
-    <t>Sitecore Content Hub (DAM) Setup &amp; Integration with Sitecore 10.2 XP/XM</t>
-  </si>
-  <si>
-    <t>2022-04-17</t>
-  </si>
-  <si>
-    <t>Sitecore Item/Field Fallback Script and Configuration</t>
-  </si>
-  <si>
-    <t>2022-08-08</t>
-  </si>
-  <si>
-    <t>Kontent.ai Version History and Features</t>
-  </si>
-  <si>
-    <t>Contentstack Version History and Features</t>
-  </si>
-  <si>
-    <t>Virto Commerce Version History and Features</t>
-  </si>
-  <si>
-    <t>Why should you go for Kentico CMS for your business?</t>
-  </si>
-  <si>
-    <t>Why does your Kentico website need a Kentico Consultant?</t>
-  </si>
-  <si>
-    <t>Why should you go for Contentful CMS for your business?</t>
-  </si>
-  <si>
-    <t>Why does your Kontent.ai website need a Kontent.ai consultant?</t>
-  </si>
-  <si>
-    <t>Why does your Contentful website need a Contentful consultant?</t>
-  </si>
-  <si>
-    <t>Top Advantages of Outsourcing CMS Development for Business Success</t>
-  </si>
-  <si>
-    <t>How to Choose the Best Kentico Development Company</t>
-  </si>
-  <si>
-    <t>Kentico vs WordPress: A Comprehensive Comparison Guide</t>
-  </si>
-  <si>
-    <t>Know Everything About Kentico License Cost with us!</t>
-  </si>
-  <si>
-    <t>Kentico Version History and Features</t>
-  </si>
-  <si>
-    <t>Umbraco Version History and Features</t>
-  </si>
-  <si>
-    <t>The Future of Digital Experiences: Emerging Technologies and Innovations</t>
-  </si>
-  <si>
-    <t>Digital Experience</t>
-  </si>
-  <si>
-    <t>Kontent.ai - Empowering your Content Management Process</t>
-  </si>
-  <si>
-    <t>Content Experience</t>
-  </si>
-  <si>
-    <t>Why should you go for Kontent.ai for your business?</t>
-  </si>
-  <si>
-    <t>A step-by-step guide on how to install Sitecore 10.3 using SIA</t>
-  </si>
-  <si>
-    <t>2023-02-14</t>
-  </si>
-  <si>
-    <t>Sitecore Installation</t>
-  </si>
-  <si>
-    <t>Sitecore Headless 10.2 Without Docker</t>
-  </si>
-  <si>
-    <t>2024-03-24</t>
-  </si>
-  <si>
-    <t>A step by step guide to install a docker</t>
-  </si>
-  <si>
-    <t>2022-07-27</t>
-  </si>
-  <si>
-    <t>The Role of Sitecore CDP in Customer Experience Management</t>
-  </si>
-  <si>
-    <t>2022-06-30</t>
-  </si>
-  <si>
-    <t>Sitecore Customization</t>
-  </si>
-  <si>
-    <t>Deploying XM Cloud: Static Site Deployment with Netlify CLI</t>
-  </si>
-  <si>
-    <t>2023-11-17</t>
-  </si>
-  <si>
-    <t>Sitecore Commerce - Module Level Customization</t>
-  </si>
-  <si>
     <t>Sitecore : Habitat MapField Issue</t>
   </si>
   <si>
     <t>2018-12-21</t>
   </si>
   <si>
-    <t>Sitecore 9.1 : Installation Issue</t>
-  </si>
-  <si>
-    <t>2018-12-06</t>
-  </si>
-  <si>
-    <t>Sitecore as SaaS- an Opportunity that you cannot PASS!</t>
-  </si>
-  <si>
-    <t>2019-11-29</t>
-  </si>
-  <si>
-    <t>Sitecore Commerce 9.2 Installation</t>
-  </si>
-  <si>
-    <t>Installation guide - Sitecore experience platform 10.0 including Horizon and DAM</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>Identify content gaps with 3 simple way and fill them</t>
-  </si>
-  <si>
-    <t>2022-01-28</t>
-  </si>
-  <si>
-    <t>Sitecore Basics</t>
-  </si>
-  <si>
-    <t>Sitecore Version History and Features</t>
-  </si>
-  <si>
-    <t>2022-09-09</t>
-  </si>
-  <si>
-    <t>Key Differences between Sitecore Versions 8, 9 and 10</t>
-  </si>
-  <si>
-    <t>2022-12-07</t>
-  </si>
-  <si>
-    <t>Sitecore Development Options, Training, Guidelines, and Resources</t>
-  </si>
-  <si>
-    <t>2023-03-20</t>
-  </si>
-  <si>
-    <t>Sitecore Symposium 2024: Detailed Information</t>
-  </si>
-  <si>
-    <t>2024-10-07</t>
-  </si>
-  <si>
-    <t>How to resolve the installation issue in Sitecore XP/XM 10.2?</t>
-  </si>
-  <si>
-    <t>2023-03-21</t>
-  </si>
-  <si>
-    <t>What is Sitecore? A beginner’s guide to Sitecore</t>
-  </si>
-  <si>
-    <t>2021-09-13</t>
-  </si>
-  <si>
-    <t>Sitecore Experience Platform 10.2.0 | Features, Changes, Issues</t>
-  </si>
-  <si>
-    <t>2022-01-03</t>
-  </si>
-  <si>
-    <t>What are Sitecore Templates?</t>
-  </si>
-  <si>
-    <t>2022-12-15</t>
-  </si>
-  <si>
-    <t>Sitecore Serialization Tools</t>
-  </si>
-  <si>
-    <t>2022-12-16</t>
-  </si>
-  <si>
-    <t>Headless CMS vs Traditional CMS: Key Differences &amp; Why It Matters</t>
-  </si>
-  <si>
-    <t>Umbraco</t>
-  </si>
-  <si>
-    <t>The Role of Content in enhancing Digital Experiences</t>
-  </si>
-  <si>
-    <t>Contentful CMS: A Beginner's Guide</t>
-  </si>
-  <si>
-    <t>Umbraco Cloud vs. Self-Hosted: Which Hosting Model Fits Your Business?</t>
-  </si>
-  <si>
-    <t>How Umbraco Empowers Councils with a Flexible and Secure DXP</t>
-  </si>
-  <si>
-    <t>2019-06-25</t>
-  </si>
-  <si>
-    <t>How can you be a Sitecore Developer?</t>
-  </si>
-  <si>
-    <t>2019-08-05</t>
-  </si>
-  <si>
-    <t>Drupal and Sitecore Comparative Review</t>
-  </si>
-  <si>
-    <t>2019-09-06</t>
-  </si>
-  <si>
-    <t>Sitecore Experience Platform 9.3 Initial Release</t>
-  </si>
-  <si>
-    <t>2019-12-03</t>
-  </si>
-  <si>
-    <t>Umbraco 12 Set up and Installation Guide</t>
-  </si>
-  <si>
-    <t>User Experience</t>
-  </si>
-  <si>
-    <t>Sitecore 9.x Custom Link Provider</t>
-  </si>
-  <si>
-    <t>2025-08-01</t>
-  </si>
-  <si>
-    <t>How to install and configure Sitecore CLI?</t>
-  </si>
-  <si>
-    <t>2023-02-09</t>
-  </si>
-  <si>
-    <t>A Guide to Sitecore Experience Manager Cloud</t>
-  </si>
-  <si>
-    <t>2022-07-21</t>
-  </si>
-  <si>
-    <t>Content Crisis Ends Here</t>
-  </si>
-  <si>
-    <t>2020-01-16</t>
-  </si>
-  <si>
-    <t>Switch on Rebuild index on Docker</t>
-  </si>
-  <si>
-    <t>2022-05-25</t>
-  </si>
-  <si>
-    <t>What to choose Sitecore Solution?</t>
-  </si>
-  <si>
-    <t>2021-03-05</t>
-  </si>
-  <si>
-    <t>Umbraco Engage: Turning Clicks into Connections</t>
-  </si>
-  <si>
-    <t>Create Sitecore JSS React Application and Apply Personalization</t>
-  </si>
-  <si>
-    <t>2021-02-15</t>
-  </si>
-  <si>
-    <t>Kentico to Umbraco Migration: A Complete Guide for Seamless Transition</t>
-  </si>
-  <si>
-    <t>A Step-by-Step Guide to Migrating from WordPress to Strapi</t>
-  </si>
-  <si>
-    <t>Strapi</t>
-  </si>
-  <si>
-    <t>Hire Strapi Developers-Deploying Strapi to Production: Best Practices &amp; Considerations</t>
-  </si>
-  <si>
-    <t>How to manage relation fields in Strapi CMS?</t>
-  </si>
-  <si>
-    <t>A Comprehensive Guide for Strapi Development Service</t>
-  </si>
-  <si>
-    <t>The Future of Multilingual Web Development: Smarter, Faster, Global</t>
-  </si>
-  <si>
-    <t>2025-07-02</t>
-  </si>
-  <si>
-    <t>Strapi Version History and Features</t>
-  </si>
-  <si>
-    <t>Why does your Strapi website need a Strapi consultant?</t>
-  </si>
-  <si>
-    <t>Benefits of Choosing Strapi Development Company</t>
+    <t>Why does your Umbraco website need an Umbraco Consultant?</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>Why should you go for Umbraco CMS for your business?</t>
+  </si>
+  <si>
+    <t>A Critical Update for Umbraco 8 Version End of Life</t>
+  </si>
+  <si>
+    <t>2025-07-04</t>
+  </si>
+  <si>
+    <t>Why Choose an Umbraco Development Agency?</t>
+  </si>
+  <si>
+    <t>Umbraco CMS: Features and Benefits</t>
+  </si>
+  <si>
+    <t>Top 5 Umbraco Web development Companies in India</t>
   </si>
   <si>
     <t>How Sitecore’s AI Features Can Transform Your Marketing Strategy</t>
   </si>
   <si>
     <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>How you can leverage Headless Architecture to enable AI?</t>
-  </si>
-  <si>
-    <t>2023-11-13</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D316"/>
+  <dimension ref="A1:D327"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
@@ -2281,27 +2320,27 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2309,27 +2348,27 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2365,10 +2404,10 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -2376,10 +2415,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -2393,7 +2432,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -2407,7 +2446,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -2421,7 +2460,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -2435,7 +2474,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -2449,7 +2488,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -2463,7 +2502,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -2477,10 +2516,10 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -2488,10 +2527,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
@@ -2505,7 +2544,7 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
@@ -2519,7 +2558,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>51</v>
@@ -2533,7 +2572,7 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>53</v>
@@ -2547,7 +2586,7 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>55</v>
@@ -2561,7 +2600,7 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>57</v>
@@ -2575,7 +2614,7 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>59</v>
@@ -2589,7 +2628,7 @@
         <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
@@ -2603,7 +2642,7 @@
         <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -2617,7 +2656,7 @@
         <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>65</v>
@@ -2631,7 +2670,7 @@
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -2645,27 +2684,27 @@
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2673,13 +2712,13 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2687,27 +2726,27 @@
         <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2715,13 +2754,13 @@
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
         <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2729,13 +2768,13 @@
         <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2743,13 +2782,13 @@
         <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
         <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2757,7 +2796,7 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
         <v>87</v>
@@ -2771,7 +2810,7 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
         <v>89</v>
@@ -2785,13 +2824,13 @@
         <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2799,13 +2838,13 @@
         <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2813,13 +2852,13 @@
         <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2827,13 +2866,13 @@
         <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2841,27 +2880,27 @@
         <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2869,13 +2908,13 @@
         <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
         <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2883,13 +2922,13 @@
         <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
         <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2897,13 +2936,13 @@
         <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
         <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2911,27 +2950,27 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2939,13 +2978,13 @@
         <v>114</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
         <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2953,13 +2992,13 @@
         <v>116</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
         <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2967,13 +3006,13 @@
         <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
         <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2981,13 +3020,13 @@
         <v>120</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,13 +3034,13 @@
         <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
         <v>123</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3009,13 +3048,13 @@
         <v>124</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
         <v>125</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3023,13 +3062,13 @@
         <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
         <v>127</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3037,13 +3076,13 @@
         <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
         <v>129</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3051,27 +3090,27 @@
         <v>130</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
         <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3079,13 +3118,13 @@
         <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
         <v>136</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3093,13 +3132,13 @@
         <v>137</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>138</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3113,7 +3152,7 @@
         <v>140</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3121,13 +3160,13 @@
         <v>141</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
         <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3135,13 +3174,13 @@
         <v>143</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>144</v>
       </c>
       <c r="D66" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3155,7 +3194,7 @@
         <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3163,13 +3202,13 @@
         <v>147</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
         <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3177,13 +3216,13 @@
         <v>149</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>150</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3197,7 +3236,7 @@
         <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3211,7 +3250,7 @@
         <v>154</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,13 +3258,13 @@
         <v>155</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
         <v>156</v>
       </c>
       <c r="D72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3233,13 +3272,13 @@
         <v>157</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>158</v>
       </c>
       <c r="D73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,13 +3286,13 @@
         <v>159</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
         <v>160</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3261,13 +3300,13 @@
         <v>161</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>162</v>
       </c>
       <c r="D75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3275,13 +3314,13 @@
         <v>163</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
         <v>164</v>
       </c>
       <c r="D76" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3289,13 +3328,13 @@
         <v>165</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>166</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3303,13 +3342,13 @@
         <v>167</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
         <v>168</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3317,13 +3356,13 @@
         <v>169</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
         <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3331,13 +3370,13 @@
         <v>171</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
         <v>172</v>
       </c>
       <c r="D80" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,13 +3384,13 @@
         <v>173</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>174</v>
       </c>
       <c r="D81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3365,7 +3404,7 @@
         <v>176</v>
       </c>
       <c r="D82" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3373,13 +3412,13 @@
         <v>177</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
         <v>178</v>
       </c>
       <c r="D83" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3387,27 +3426,27 @@
         <v>179</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
         <v>181</v>
       </c>
-      <c r="B85" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" t="s">
-        <v>15</v>
-      </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3415,13 +3454,13 @@
         <v>182</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>183</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3429,13 +3468,13 @@
         <v>184</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s">
         <v>185</v>
       </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3443,13 +3482,13 @@
         <v>186</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>187</v>
       </c>
       <c r="D88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3457,13 +3496,13 @@
         <v>188</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
         <v>189</v>
       </c>
       <c r="D89" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3471,13 +3510,13 @@
         <v>190</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s">
         <v>191</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3485,13 +3524,13 @@
         <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>193</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3505,7 +3544,7 @@
         <v>195</v>
       </c>
       <c r="D92" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3513,13 +3552,13 @@
         <v>196</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
         <v>197</v>
       </c>
       <c r="D93" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3527,13 +3566,13 @@
         <v>198</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
         <v>199</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3541,13 +3580,13 @@
         <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s">
         <v>201</v>
       </c>
       <c r="D95" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3555,13 +3594,13 @@
         <v>202</v>
       </c>
       <c r="B96" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>203</v>
       </c>
       <c r="D96" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3569,13 +3608,13 @@
         <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
         <v>205</v>
       </c>
       <c r="D97" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3583,13 +3622,13 @@
         <v>206</v>
       </c>
       <c r="B98" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
         <v>207</v>
       </c>
       <c r="D98" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3597,13 +3636,13 @@
         <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C99" t="s">
         <v>209</v>
       </c>
       <c r="D99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3611,13 +3650,13 @@
         <v>210</v>
       </c>
       <c r="B100" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>211</v>
       </c>
       <c r="D100" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3631,7 +3670,7 @@
         <v>213</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3639,13 +3678,13 @@
         <v>214</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C102" t="s">
         <v>215</v>
       </c>
       <c r="D102" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3653,41 +3692,41 @@
         <v>216</v>
       </c>
       <c r="B103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C103" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="D103" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>217</v>
+      </c>
+      <c r="B104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104" t="s">
         <v>218</v>
       </c>
-      <c r="B104" t="s">
-        <v>46</v>
-      </c>
-      <c r="C104" t="s">
-        <v>219</v>
-      </c>
       <c r="D104" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>219</v>
+      </c>
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" t="s">
         <v>220</v>
       </c>
-      <c r="B105" t="s">
-        <v>46</v>
-      </c>
-      <c r="C105" t="s">
-        <v>146</v>
-      </c>
       <c r="D105" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3695,69 +3734,69 @@
         <v>221</v>
       </c>
       <c r="B106" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C106" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
       <c r="D106" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>222</v>
+      </c>
+      <c r="B107" t="s">
+        <v>44</v>
+      </c>
+      <c r="C107" t="s">
         <v>223</v>
       </c>
-      <c r="B107" t="s">
-        <v>29</v>
-      </c>
-      <c r="C107" t="s">
-        <v>224</v>
-      </c>
       <c r="D107" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B108" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C108" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" t="s">
+        <v>44</v>
+      </c>
+      <c r="C109" t="s">
         <v>226</v>
       </c>
-      <c r="B109" t="s">
-        <v>46</v>
-      </c>
-      <c r="C109" t="s">
-        <v>227</v>
-      </c>
       <c r="D109" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>227</v>
+      </c>
+      <c r="B110" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" t="s">
         <v>228</v>
       </c>
-      <c r="B110" t="s">
-        <v>101</v>
-      </c>
-      <c r="C110" t="s">
-        <v>11</v>
-      </c>
       <c r="D110" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3765,13 +3804,13 @@
         <v>229</v>
       </c>
       <c r="B111" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C111" t="s">
         <v>230</v>
       </c>
       <c r="D111" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3779,13 +3818,13 @@
         <v>231</v>
       </c>
       <c r="B112" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C112" t="s">
         <v>232</v>
       </c>
       <c r="D112" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3793,13 +3832,13 @@
         <v>233</v>
       </c>
       <c r="B113" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="C113" t="s">
         <v>234</v>
       </c>
       <c r="D113" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3807,13 +3846,13 @@
         <v>235</v>
       </c>
       <c r="B114" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C114" t="s">
         <v>236</v>
       </c>
       <c r="D114" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3821,13 +3860,13 @@
         <v>237</v>
       </c>
       <c r="B115" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C115" t="s">
         <v>238</v>
       </c>
       <c r="D115" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3835,13 +3874,13 @@
         <v>239</v>
       </c>
       <c r="B116" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C116" t="s">
         <v>240</v>
       </c>
       <c r="D116" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3849,41 +3888,41 @@
         <v>241</v>
       </c>
       <c r="B117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C117" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="D117" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>242</v>
+      </c>
+      <c r="B118" t="s">
+        <v>44</v>
+      </c>
+      <c r="C118" t="s">
         <v>243</v>
       </c>
-      <c r="B118" t="s">
-        <v>29</v>
-      </c>
-      <c r="C118" t="s">
-        <v>244</v>
-      </c>
       <c r="D118" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>244</v>
+      </c>
+      <c r="B119" t="s">
+        <v>44</v>
+      </c>
+      <c r="C119" t="s">
         <v>245</v>
       </c>
-      <c r="B119" t="s">
-        <v>46</v>
-      </c>
-      <c r="C119" t="s">
-        <v>170</v>
-      </c>
       <c r="D119" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3891,13 +3930,13 @@
         <v>246</v>
       </c>
       <c r="B120" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C120" t="s">
         <v>247</v>
       </c>
       <c r="D120" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3905,13 +3944,13 @@
         <v>248</v>
       </c>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C121" t="s">
         <v>249</v>
       </c>
       <c r="D121" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3919,13 +3958,13 @@
         <v>250</v>
       </c>
       <c r="B122" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C122" t="s">
         <v>251</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3933,13 +3972,13 @@
         <v>252</v>
       </c>
       <c r="B123" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C123" t="s">
         <v>253</v>
       </c>
       <c r="D123" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3947,13 +3986,13 @@
         <v>254</v>
       </c>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C124" t="s">
         <v>255</v>
       </c>
       <c r="D124" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3961,13 +4000,13 @@
         <v>256</v>
       </c>
       <c r="B125" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="C125" t="s">
         <v>257</v>
       </c>
       <c r="D125" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3975,13 +4014,13 @@
         <v>258</v>
       </c>
       <c r="B126" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
         <v>259</v>
       </c>
       <c r="D126" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3989,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C127" t="s">
         <v>261</v>
       </c>
       <c r="D127" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4003,13 +4042,13 @@
         <v>262</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C128" t="s">
         <v>263</v>
       </c>
       <c r="D128" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4017,13 +4056,13 @@
         <v>264</v>
       </c>
       <c r="B129" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C129" t="s">
         <v>265</v>
       </c>
       <c r="D129" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4031,13 +4070,13 @@
         <v>266</v>
       </c>
       <c r="B130" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C130" t="s">
         <v>267</v>
       </c>
       <c r="D130" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4045,13 +4084,13 @@
         <v>268</v>
       </c>
       <c r="B131" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C131" t="s">
         <v>269</v>
       </c>
       <c r="D131" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4059,13 +4098,13 @@
         <v>270</v>
       </c>
       <c r="B132" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C132" t="s">
         <v>271</v>
       </c>
       <c r="D132" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4073,13 +4112,13 @@
         <v>272</v>
       </c>
       <c r="B133" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C133" t="s">
         <v>273</v>
       </c>
       <c r="D133" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4087,13 +4126,13 @@
         <v>274</v>
       </c>
       <c r="B134" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C134" t="s">
         <v>275</v>
       </c>
       <c r="D134" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4101,13 +4140,13 @@
         <v>276</v>
       </c>
       <c r="B135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C135" t="s">
         <v>277</v>
       </c>
       <c r="D135" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4115,13 +4154,13 @@
         <v>278</v>
       </c>
       <c r="B136" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C136" t="s">
         <v>279</v>
       </c>
       <c r="D136" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4129,13 +4168,13 @@
         <v>280</v>
       </c>
       <c r="B137" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C137" t="s">
         <v>281</v>
       </c>
       <c r="D137" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4143,13 +4182,13 @@
         <v>282</v>
       </c>
       <c r="B138" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C138" t="s">
         <v>283</v>
       </c>
       <c r="D138" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4157,13 +4196,13 @@
         <v>284</v>
       </c>
       <c r="B139" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C139" t="s">
         <v>285</v>
       </c>
       <c r="D139" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4171,13 +4210,13 @@
         <v>286</v>
       </c>
       <c r="B140" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C140" t="s">
         <v>287</v>
       </c>
       <c r="D140" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4185,13 +4224,13 @@
         <v>288</v>
       </c>
       <c r="B141" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C141" t="s">
         <v>289</v>
       </c>
       <c r="D141" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4199,13 +4238,13 @@
         <v>290</v>
       </c>
       <c r="B142" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C142" t="s">
         <v>291</v>
       </c>
       <c r="D142" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4213,13 +4252,13 @@
         <v>292</v>
       </c>
       <c r="B143" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C143" t="s">
         <v>293</v>
       </c>
       <c r="D143" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4227,13 +4266,13 @@
         <v>294</v>
       </c>
       <c r="B144" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C144" t="s">
         <v>295</v>
       </c>
       <c r="D144" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4241,13 +4280,13 @@
         <v>296</v>
       </c>
       <c r="B145" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C145" t="s">
         <v>297</v>
       </c>
       <c r="D145" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4255,13 +4294,13 @@
         <v>298</v>
       </c>
       <c r="B146" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C146" t="s">
         <v>299</v>
       </c>
       <c r="D146" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4269,13 +4308,13 @@
         <v>300</v>
       </c>
       <c r="B147" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C147" t="s">
         <v>301</v>
       </c>
       <c r="D147" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4283,13 +4322,13 @@
         <v>302</v>
       </c>
       <c r="B148" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C148" t="s">
         <v>303</v>
       </c>
       <c r="D148" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4297,13 +4336,13 @@
         <v>304</v>
       </c>
       <c r="B149" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C149" t="s">
         <v>305</v>
       </c>
       <c r="D149" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4311,13 +4350,13 @@
         <v>306</v>
       </c>
       <c r="B150" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C150" t="s">
         <v>307</v>
       </c>
       <c r="D150" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4325,13 +4364,13 @@
         <v>308</v>
       </c>
       <c r="B151" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C151" t="s">
         <v>309</v>
       </c>
       <c r="D151" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4339,13 +4378,13 @@
         <v>310</v>
       </c>
       <c r="B152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C152" t="s">
         <v>311</v>
       </c>
       <c r="D152" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4353,41 +4392,41 @@
         <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C153" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="D153" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>313</v>
+      </c>
+      <c r="B154" t="s">
+        <v>44</v>
+      </c>
+      <c r="C154" t="s">
         <v>314</v>
       </c>
-      <c r="B154" t="s">
-        <v>29</v>
-      </c>
-      <c r="C154" t="s">
-        <v>315</v>
-      </c>
       <c r="D154" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>315</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
         <v>316</v>
       </c>
-      <c r="B155" t="s">
-        <v>29</v>
-      </c>
-      <c r="C155" t="s">
-        <v>285</v>
-      </c>
       <c r="D155" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4395,13 +4434,13 @@
         <v>317</v>
       </c>
       <c r="B156" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C156" t="s">
         <v>318</v>
       </c>
       <c r="D156" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4409,13 +4448,13 @@
         <v>319</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C157" t="s">
         <v>320</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4423,13 +4462,13 @@
         <v>321</v>
       </c>
       <c r="B158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C158" t="s">
         <v>322</v>
       </c>
       <c r="D158" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4437,13 +4476,13 @@
         <v>323</v>
       </c>
       <c r="B159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C159" t="s">
         <v>324</v>
       </c>
       <c r="D159" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4451,13 +4490,13 @@
         <v>325</v>
       </c>
       <c r="B160" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C160" t="s">
         <v>326</v>
       </c>
       <c r="D160" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4465,13 +4504,13 @@
         <v>327</v>
       </c>
       <c r="B161" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C161" t="s">
         <v>328</v>
       </c>
       <c r="D161" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4479,41 +4518,41 @@
         <v>329</v>
       </c>
       <c r="B162" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>330</v>
       </c>
       <c r="D162" t="s">
-        <v>21</v>
+        <v>331</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>332</v>
+      </c>
+      <c r="B163" t="s">
+        <v>44</v>
+      </c>
+      <c r="C163" t="s">
+        <v>333</v>
+      </c>
+      <c r="D163" t="s">
         <v>331</v>
-      </c>
-      <c r="B163" t="s">
-        <v>46</v>
-      </c>
-      <c r="C163" t="s">
-        <v>332</v>
-      </c>
-      <c r="D163" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D164" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4521,13 +4560,13 @@
         <v>336</v>
       </c>
       <c r="B165" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>337</v>
       </c>
       <c r="D165" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4541,7 +4580,7 @@
         <v>339</v>
       </c>
       <c r="D166" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4555,7 +4594,7 @@
         <v>341</v>
       </c>
       <c r="D167" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4563,13 +4602,13 @@
         <v>342</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C168" t="s">
         <v>343</v>
       </c>
       <c r="D168" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4583,7 +4622,7 @@
         <v>345</v>
       </c>
       <c r="D169" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4591,13 +4630,13 @@
         <v>346</v>
       </c>
       <c r="B170" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>347</v>
       </c>
       <c r="D170" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4611,7 +4650,7 @@
         <v>349</v>
       </c>
       <c r="D171" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4625,7 +4664,7 @@
         <v>351</v>
       </c>
       <c r="D172" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4639,7 +4678,7 @@
         <v>353</v>
       </c>
       <c r="D173" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4653,7 +4692,7 @@
         <v>355</v>
       </c>
       <c r="D174" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4667,7 +4706,7 @@
         <v>357</v>
       </c>
       <c r="D175" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4681,7 +4720,7 @@
         <v>359</v>
       </c>
       <c r="D176" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4689,41 +4728,41 @@
         <v>360</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C177" t="s">
         <v>361</v>
       </c>
       <c r="D177" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>363</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>364</v>
+      </c>
+      <c r="D178" t="s">
         <v>362</v>
-      </c>
-      <c r="B178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C178" t="s">
-        <v>363</v>
-      </c>
-      <c r="D178" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D179" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4731,13 +4770,13 @@
         <v>367</v>
       </c>
       <c r="B180" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>368</v>
       </c>
       <c r="D180" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4751,7 +4790,7 @@
         <v>370</v>
       </c>
       <c r="D181" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4759,13 +4798,13 @@
         <v>371</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C182" t="s">
         <v>372</v>
       </c>
       <c r="D182" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4773,13 +4812,13 @@
         <v>373</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C183" t="s">
         <v>374</v>
       </c>
       <c r="D183" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4787,13 +4826,13 @@
         <v>375</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C184" t="s">
         <v>376</v>
       </c>
       <c r="D184" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4801,13 +4840,13 @@
         <v>377</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C185" t="s">
         <v>378</v>
       </c>
       <c r="D185" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4815,13 +4854,13 @@
         <v>379</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
         <v>380</v>
       </c>
       <c r="D186" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4829,13 +4868,13 @@
         <v>381</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C187" t="s">
         <v>382</v>
       </c>
       <c r="D187" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4843,13 +4882,13 @@
         <v>383</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
         <v>384</v>
       </c>
       <c r="D188" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4857,13 +4896,13 @@
         <v>385</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C189" t="s">
         <v>386</v>
       </c>
       <c r="D189" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4871,13 +4910,13 @@
         <v>387</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C190" t="s">
         <v>388</v>
       </c>
       <c r="D190" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4885,13 +4924,13 @@
         <v>389</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C191" t="s">
         <v>390</v>
       </c>
       <c r="D191" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4899,13 +4938,13 @@
         <v>391</v>
       </c>
       <c r="B192" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C192" t="s">
         <v>392</v>
       </c>
       <c r="D192" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4913,13 +4952,13 @@
         <v>393</v>
       </c>
       <c r="B193" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C193" t="s">
         <v>394</v>
       </c>
       <c r="D193" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4927,13 +4966,13 @@
         <v>395</v>
       </c>
       <c r="B194" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C194" t="s">
         <v>396</v>
       </c>
       <c r="D194" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4941,13 +4980,13 @@
         <v>397</v>
       </c>
       <c r="B195" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C195" t="s">
         <v>398</v>
       </c>
       <c r="D195" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4955,13 +4994,13 @@
         <v>399</v>
       </c>
       <c r="B196" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C196" t="s">
         <v>400</v>
       </c>
       <c r="D196" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4969,13 +5008,13 @@
         <v>401</v>
       </c>
       <c r="B197" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C197" t="s">
         <v>402</v>
       </c>
       <c r="D197" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4983,13 +5022,13 @@
         <v>403</v>
       </c>
       <c r="B198" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C198" t="s">
         <v>404</v>
       </c>
       <c r="D198" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4997,13 +5036,13 @@
         <v>405</v>
       </c>
       <c r="B199" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C199" t="s">
         <v>406</v>
       </c>
       <c r="D199" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5011,13 +5050,13 @@
         <v>407</v>
       </c>
       <c r="B200" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C200" t="s">
         <v>408</v>
       </c>
       <c r="D200" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5025,13 +5064,13 @@
         <v>409</v>
       </c>
       <c r="B201" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C201" t="s">
         <v>410</v>
       </c>
       <c r="D201" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5039,13 +5078,13 @@
         <v>411</v>
       </c>
       <c r="B202" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C202" t="s">
         <v>412</v>
       </c>
       <c r="D202" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5053,13 +5092,13 @@
         <v>413</v>
       </c>
       <c r="B203" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C203" t="s">
         <v>414</v>
       </c>
       <c r="D203" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5067,13 +5106,13 @@
         <v>415</v>
       </c>
       <c r="B204" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C204" t="s">
         <v>416</v>
       </c>
       <c r="D204" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5081,41 +5120,41 @@
         <v>417</v>
       </c>
       <c r="B205" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C205" t="s">
-        <v>418</v>
+        <v>176</v>
       </c>
       <c r="D205" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>418</v>
+      </c>
+      <c r="B206" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206" t="s">
         <v>419</v>
       </c>
-      <c r="B206" t="s">
-        <v>29</v>
-      </c>
-      <c r="C206" t="s">
-        <v>420</v>
-      </c>
       <c r="D206" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>420</v>
+      </c>
+      <c r="B207" t="s">
+        <v>27</v>
+      </c>
+      <c r="C207" t="s">
         <v>421</v>
       </c>
-      <c r="B207" t="s">
-        <v>29</v>
-      </c>
-      <c r="C207" t="s">
-        <v>178</v>
-      </c>
       <c r="D207" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5123,13 +5162,13 @@
         <v>422</v>
       </c>
       <c r="B208" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C208" t="s">
         <v>423</v>
       </c>
       <c r="D208" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5137,13 +5176,13 @@
         <v>424</v>
       </c>
       <c r="B209" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>425</v>
       </c>
       <c r="D209" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5151,13 +5190,13 @@
         <v>426</v>
       </c>
       <c r="B210" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C210" t="s">
         <v>427</v>
       </c>
       <c r="D210" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,13 +5204,13 @@
         <v>428</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C211" t="s">
         <v>429</v>
       </c>
       <c r="D211" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5179,13 +5218,13 @@
         <v>430</v>
       </c>
       <c r="B212" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C212" t="s">
         <v>431</v>
       </c>
       <c r="D212" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5193,13 +5232,13 @@
         <v>432</v>
       </c>
       <c r="B213" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C213" t="s">
         <v>433</v>
       </c>
       <c r="D213" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5207,13 +5246,13 @@
         <v>434</v>
       </c>
       <c r="B214" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C214" t="s">
         <v>435</v>
       </c>
       <c r="D214" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5221,13 +5260,13 @@
         <v>436</v>
       </c>
       <c r="B215" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C215" t="s">
         <v>437</v>
       </c>
       <c r="D215" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5235,13 +5274,13 @@
         <v>438</v>
       </c>
       <c r="B216" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C216" t="s">
         <v>439</v>
       </c>
       <c r="D216" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,13 +5288,13 @@
         <v>440</v>
       </c>
       <c r="B217" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C217" t="s">
         <v>441</v>
       </c>
       <c r="D217" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5263,13 +5302,13 @@
         <v>442</v>
       </c>
       <c r="B218" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C218" t="s">
         <v>443</v>
       </c>
       <c r="D218" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5277,13 +5316,13 @@
         <v>444</v>
       </c>
       <c r="B219" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C219" t="s">
         <v>445</v>
       </c>
       <c r="D219" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5291,13 +5330,13 @@
         <v>446</v>
       </c>
       <c r="B220" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C220" t="s">
         <v>447</v>
       </c>
       <c r="D220" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5305,41 +5344,41 @@
         <v>448</v>
       </c>
       <c r="B221" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C221" t="s">
-        <v>449</v>
+        <v>309</v>
       </c>
       <c r="D221" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>449</v>
+      </c>
+      <c r="B222" t="s">
+        <v>27</v>
+      </c>
+      <c r="C222" t="s">
         <v>450</v>
       </c>
-      <c r="B222" t="s">
-        <v>29</v>
-      </c>
-      <c r="C222" t="s">
-        <v>451</v>
-      </c>
       <c r="D222" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>451</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
         <v>452</v>
       </c>
-      <c r="B223" t="s">
-        <v>29</v>
-      </c>
-      <c r="C223" t="s">
-        <v>313</v>
-      </c>
       <c r="D223" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5347,13 +5386,13 @@
         <v>453</v>
       </c>
       <c r="B224" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C224" t="s">
         <v>454</v>
       </c>
       <c r="D224" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5361,13 +5400,13 @@
         <v>455</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C225" t="s">
         <v>456</v>
       </c>
       <c r="D225" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5375,13 +5414,13 @@
         <v>457</v>
       </c>
       <c r="B226" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C226" t="s">
         <v>458</v>
       </c>
       <c r="D226" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -5389,27 +5428,27 @@
         <v>459</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>460</v>
+        <v>93</v>
       </c>
       <c r="D227" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>460</v>
+      </c>
+      <c r="B228" t="s">
         <v>461</v>
-      </c>
-      <c r="B228" t="s">
-        <v>15</v>
       </c>
       <c r="C228" t="s">
         <v>462</v>
       </c>
       <c r="D228" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5417,27 +5456,27 @@
         <v>463</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>461</v>
       </c>
       <c r="C229" t="s">
-        <v>95</v>
+        <v>462</v>
       </c>
       <c r="D229" t="s">
-        <v>366</v>
+        <v>464</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B230" t="s">
-        <v>465</v>
+        <v>27</v>
       </c>
       <c r="C230" t="s">
         <v>466</v>
       </c>
       <c r="D230" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5445,13 +5484,13 @@
         <v>467</v>
       </c>
       <c r="B231" t="s">
-        <v>465</v>
+        <v>27</v>
       </c>
       <c r="C231" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D231" t="s">
-        <v>468</v>
+        <v>362</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5459,41 +5498,41 @@
         <v>469</v>
       </c>
       <c r="B232" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C232" t="s">
-        <v>470</v>
+        <v>91</v>
       </c>
       <c r="D232" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>470</v>
+      </c>
+      <c r="B233" t="s">
+        <v>27</v>
+      </c>
+      <c r="C233" t="s">
         <v>471</v>
       </c>
-      <c r="B233" t="s">
-        <v>29</v>
-      </c>
-      <c r="C233" t="s">
-        <v>472</v>
-      </c>
       <c r="D233" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>472</v>
+      </c>
+      <c r="B234" t="s">
+        <v>44</v>
+      </c>
+      <c r="C234" t="s">
         <v>473</v>
       </c>
-      <c r="B234" t="s">
-        <v>29</v>
-      </c>
-      <c r="C234" t="s">
-        <v>93</v>
-      </c>
       <c r="D234" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5501,13 +5540,13 @@
         <v>474</v>
       </c>
       <c r="B235" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C235" t="s">
         <v>475</v>
       </c>
       <c r="D235" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5515,13 +5554,13 @@
         <v>476</v>
       </c>
       <c r="B236" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C236" t="s">
         <v>477</v>
       </c>
       <c r="D236" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5529,13 +5568,13 @@
         <v>478</v>
       </c>
       <c r="B237" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C237" t="s">
         <v>479</v>
       </c>
       <c r="D237" t="s">
-        <v>366</v>
+        <v>132</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5543,13 +5582,13 @@
         <v>480</v>
       </c>
       <c r="B238" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>481</v>
       </c>
       <c r="D238" t="s">
-        <v>366</v>
+        <v>132</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5557,13 +5596,13 @@
         <v>482</v>
       </c>
       <c r="B239" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>483</v>
       </c>
       <c r="D239" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5571,13 +5610,13 @@
         <v>484</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C240" t="s">
         <v>485</v>
       </c>
       <c r="D240" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5585,13 +5624,13 @@
         <v>486</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C241" t="s">
         <v>487</v>
       </c>
       <c r="D241" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5599,13 +5638,13 @@
         <v>488</v>
       </c>
       <c r="B242" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>489</v>
       </c>
       <c r="D242" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5613,41 +5652,41 @@
         <v>490</v>
       </c>
       <c r="B243" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C243" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
       <c r="D243" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D244" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>493</v>
+      </c>
+      <c r="B245" t="s">
+        <v>44</v>
+      </c>
+      <c r="C245" t="s">
         <v>494</v>
       </c>
-      <c r="B245" t="s">
-        <v>29</v>
-      </c>
-      <c r="C245" t="s">
-        <v>443</v>
-      </c>
       <c r="D245" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5661,7 +5700,7 @@
         <v>496</v>
       </c>
       <c r="D246" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5669,237 +5708,237 @@
         <v>497</v>
       </c>
       <c r="B247" t="s">
-        <v>46</v>
+        <v>461</v>
       </c>
       <c r="C247" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="D247" t="s">
-        <v>134</v>
+        <v>464</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>461</v>
       </c>
       <c r="C248" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="D248" t="s">
-        <v>134</v>
+        <v>464</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B249" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C249" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D249" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B250" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C250" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D250" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B251" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C251" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D251" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B252" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C252" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D252" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B253" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C253" t="s">
-        <v>466</v>
+        <v>201</v>
       </c>
       <c r="D253" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B254" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C254" t="s">
-        <v>466</v>
+        <v>201</v>
       </c>
       <c r="D254" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B255" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C255" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D255" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B256" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C256" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D256" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B257" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C257" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D257" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B258" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C258" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D258" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B259" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C259" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D259" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B260" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C260" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D260" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B261" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C261" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D261" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B262" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C262" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D262" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>513</v>
+      </c>
+      <c r="B263" t="s">
+        <v>461</v>
+      </c>
+      <c r="C263" t="s">
+        <v>201</v>
+      </c>
+      <c r="D263" t="s">
         <v>514</v>
-      </c>
-      <c r="B263" t="s">
-        <v>465</v>
-      </c>
-      <c r="C263" t="s">
-        <v>203</v>
-      </c>
-      <c r="D263" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5907,24 +5946,24 @@
         <v>515</v>
       </c>
       <c r="B264" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C264" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D264" t="s">
-        <v>516</v>
+        <v>464</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>516</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
         <v>517</v>
-      </c>
-      <c r="B265" t="s">
-        <v>465</v>
-      </c>
-      <c r="C265" t="s">
-        <v>203</v>
       </c>
       <c r="D265" t="s">
         <v>518</v>
@@ -5935,27 +5974,27 @@
         <v>519</v>
       </c>
       <c r="B266" t="s">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="C266" t="s">
-        <v>203</v>
+        <v>520</v>
       </c>
       <c r="D266" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
       </c>
       <c r="C267" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D267" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5963,69 +6002,69 @@
         <v>523</v>
       </c>
       <c r="B268" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C268" t="s">
         <v>524</v>
       </c>
       <c r="D268" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>526</v>
+      </c>
+      <c r="B269" t="s">
+        <v>27</v>
+      </c>
+      <c r="C269" t="s">
+        <v>527</v>
+      </c>
+      <c r="D269" t="s">
         <v>525</v>
-      </c>
-      <c r="B269" t="s">
-        <v>5</v>
-      </c>
-      <c r="C269" t="s">
-        <v>526</v>
-      </c>
-      <c r="D269" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B270" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C270" t="s">
-        <v>528</v>
+        <v>477</v>
       </c>
       <c r="D270" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>529</v>
+      </c>
+      <c r="B271" t="s">
+        <v>44</v>
+      </c>
+      <c r="C271" t="s">
         <v>530</v>
       </c>
-      <c r="B271" t="s">
-        <v>29</v>
-      </c>
-      <c r="C271" t="s">
-        <v>531</v>
-      </c>
       <c r="D271" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>531</v>
+      </c>
+      <c r="B272" t="s">
+        <v>44</v>
+      </c>
+      <c r="C272" t="s">
         <v>532</v>
       </c>
-      <c r="B272" t="s">
-        <v>46</v>
-      </c>
-      <c r="C272" t="s">
-        <v>481</v>
-      </c>
       <c r="D272" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6033,41 +6072,41 @@
         <v>533</v>
       </c>
       <c r="B273" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C273" t="s">
-        <v>534</v>
+        <v>47</v>
       </c>
       <c r="D273" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>534</v>
+      </c>
+      <c r="B274" t="s">
+        <v>27</v>
+      </c>
+      <c r="C274" t="s">
         <v>535</v>
       </c>
-      <c r="B274" t="s">
-        <v>46</v>
-      </c>
-      <c r="C274" t="s">
-        <v>536</v>
-      </c>
       <c r="D274" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>536</v>
+      </c>
+      <c r="B275" t="s">
+        <v>27</v>
+      </c>
+      <c r="C275" t="s">
         <v>537</v>
       </c>
-      <c r="B275" t="s">
-        <v>46</v>
-      </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
         <v>538</v>
-      </c>
-      <c r="D275" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6075,41 +6114,41 @@
         <v>539</v>
       </c>
       <c r="B276" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C276" t="s">
-        <v>49</v>
+        <v>540</v>
       </c>
       <c r="D276" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B277" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D277" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B278" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C278" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D278" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6117,13 +6156,13 @@
         <v>545</v>
       </c>
       <c r="B279" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C279" t="s">
         <v>546</v>
       </c>
       <c r="D279" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6131,13 +6170,13 @@
         <v>547</v>
       </c>
       <c r="B280" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C280" t="s">
         <v>548</v>
       </c>
       <c r="D280" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6145,13 +6184,13 @@
         <v>549</v>
       </c>
       <c r="B281" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C281" t="s">
         <v>550</v>
       </c>
       <c r="D281" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6159,13 +6198,13 @@
         <v>551</v>
       </c>
       <c r="B282" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C282" t="s">
         <v>552</v>
       </c>
       <c r="D282" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6173,13 +6212,13 @@
         <v>553</v>
       </c>
       <c r="B283" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C283" t="s">
         <v>554</v>
       </c>
       <c r="D283" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6187,13 +6226,13 @@
         <v>555</v>
       </c>
       <c r="B284" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C284" t="s">
         <v>556</v>
       </c>
       <c r="D284" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6201,13 +6240,13 @@
         <v>557</v>
       </c>
       <c r="B285" t="s">
-        <v>29</v>
+        <v>461</v>
       </c>
       <c r="C285" t="s">
+        <v>201</v>
+      </c>
+      <c r="D285" t="s">
         <v>558</v>
-      </c>
-      <c r="D285" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6215,111 +6254,111 @@
         <v>559</v>
       </c>
       <c r="B286" t="s">
-        <v>29</v>
+        <v>461</v>
       </c>
       <c r="C286" t="s">
-        <v>560</v>
+        <v>201</v>
       </c>
       <c r="D286" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B287" t="s">
-        <v>5</v>
+        <v>461</v>
       </c>
       <c r="C287" t="s">
-        <v>562</v>
+        <v>201</v>
       </c>
       <c r="D287" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B288" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C288" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D288" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B289" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C289" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D289" t="s">
-        <v>518</v>
+        <v>558</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>566</v>
+        <v>325</v>
       </c>
       <c r="B290" t="s">
-        <v>465</v>
+        <v>27</v>
       </c>
       <c r="C290" t="s">
-        <v>203</v>
+        <v>563</v>
       </c>
       <c r="D290" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B291" t="s">
-        <v>465</v>
+        <v>27</v>
       </c>
       <c r="C291" t="s">
-        <v>203</v>
+        <v>565</v>
       </c>
       <c r="D291" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B292" t="s">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="C292" t="s">
-        <v>203</v>
+        <v>567</v>
       </c>
       <c r="D292" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>329</v>
+        <v>568</v>
       </c>
       <c r="B293" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C293" t="s">
         <v>569</v>
       </c>
       <c r="D293" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6327,13 +6366,13 @@
         <v>570</v>
       </c>
       <c r="B294" t="s">
-        <v>29</v>
+        <v>461</v>
       </c>
       <c r="C294" t="s">
+        <v>201</v>
+      </c>
+      <c r="D294" t="s">
         <v>571</v>
-      </c>
-      <c r="D294" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6341,13 +6380,13 @@
         <v>572</v>
       </c>
       <c r="B295" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C295" t="s">
         <v>573</v>
       </c>
       <c r="D295" t="s">
-        <v>544</v>
+        <v>132</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6355,13 +6394,13 @@
         <v>574</v>
       </c>
       <c r="B296" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C296" t="s">
         <v>575</v>
       </c>
       <c r="D296" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6369,13 +6408,13 @@
         <v>576</v>
       </c>
       <c r="B297" t="s">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="C297" t="s">
-        <v>203</v>
+        <v>577</v>
       </c>
       <c r="D297" t="s">
-        <v>577</v>
+        <v>132</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6383,13 +6422,13 @@
         <v>578</v>
       </c>
       <c r="B298" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C298" t="s">
         <v>579</v>
       </c>
       <c r="D298" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6397,13 +6436,13 @@
         <v>580</v>
       </c>
       <c r="B299" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C299" t="s">
         <v>581</v>
       </c>
       <c r="D299" t="s">
-        <v>522</v>
+        <v>132</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6411,13 +6450,13 @@
         <v>582</v>
       </c>
       <c r="B300" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C300" t="s">
         <v>583</v>
       </c>
       <c r="D300" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6425,222 +6464,376 @@
         <v>584</v>
       </c>
       <c r="B301" t="s">
-        <v>29</v>
+        <v>461</v>
       </c>
       <c r="C301" t="s">
-        <v>585</v>
+        <v>201</v>
       </c>
       <c r="D301" t="s">
-        <v>134</v>
+        <v>558</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>585</v>
+      </c>
+      <c r="B302" t="s">
+        <v>27</v>
+      </c>
+      <c r="C302" t="s">
         <v>586</v>
       </c>
-      <c r="B302" t="s">
-        <v>5</v>
-      </c>
-      <c r="C302" t="s">
-        <v>587</v>
-      </c>
       <c r="D302" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B303" t="s">
-        <v>46</v>
+        <v>461</v>
       </c>
       <c r="C303" t="s">
-        <v>589</v>
+        <v>201</v>
       </c>
       <c r="D303" t="s">
-        <v>134</v>
+        <v>558</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B304" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C304" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="D304" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B305" t="s">
-        <v>29</v>
+        <v>461</v>
       </c>
       <c r="C305" t="s">
-        <v>592</v>
+        <v>13</v>
       </c>
       <c r="D305" t="s">
-        <v>134</v>
+        <v>589</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B306" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C306" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="D306" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B307" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C307" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D307" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B308" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C308" t="s">
-        <v>15</v>
+        <v>594</v>
       </c>
       <c r="D308" t="s">
-        <v>595</v>
+        <v>558</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B309" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C309" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D309" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B310" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C310" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D310" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B311" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C311" t="s">
-        <v>600</v>
+        <v>13</v>
       </c>
       <c r="D311" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B312" t="s">
-        <v>465</v>
+        <v>27</v>
       </c>
       <c r="C312" t="s">
-        <v>15</v>
+        <v>599</v>
       </c>
       <c r="D312" t="s">
-        <v>595</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B313" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C313" t="s">
-        <v>15</v>
+        <v>594</v>
       </c>
       <c r="D313" t="s">
-        <v>595</v>
+        <v>558</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B314" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C314" t="s">
-        <v>15</v>
+        <v>594</v>
       </c>
       <c r="D314" t="s">
-        <v>595</v>
+        <v>558</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B315" t="s">
-        <v>78</v>
+        <v>461</v>
       </c>
       <c r="C315" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="D315" t="s">
-        <v>7</v>
+        <v>558</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>603</v>
+      </c>
+      <c r="B316" t="s">
+        <v>461</v>
+      </c>
+      <c r="C316" t="s">
+        <v>594</v>
+      </c>
+      <c r="D316" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>604</v>
+      </c>
+      <c r="B317" t="s">
+        <v>461</v>
+      </c>
+      <c r="C317" t="s">
+        <v>594</v>
+      </c>
+      <c r="D317" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>605</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" t="s">
         <v>606</v>
       </c>
-      <c r="B316" t="s">
-        <v>29</v>
-      </c>
-      <c r="C316" t="s">
+      <c r="D318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
         <v>607</v>
       </c>
-      <c r="D316" t="s">
+      <c r="B319" t="s">
+        <v>44</v>
+      </c>
+      <c r="C319" t="s">
+        <v>608</v>
+      </c>
+      <c r="D319" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>609</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" t="s">
+        <v>610</v>
+      </c>
+      <c r="D320" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>611</v>
+      </c>
+      <c r="B321" t="s">
+        <v>461</v>
+      </c>
+      <c r="C321" t="s">
+        <v>612</v>
+      </c>
+      <c r="D321" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>613</v>
+      </c>
+      <c r="B322" t="s">
+        <v>461</v>
+      </c>
+      <c r="C322" t="s">
+        <v>612</v>
+      </c>
+      <c r="D322" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>614</v>
+      </c>
+      <c r="B323" t="s">
+        <v>461</v>
+      </c>
+      <c r="C323" t="s">
+        <v>615</v>
+      </c>
+      <c r="D323" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>616</v>
+      </c>
+      <c r="B324" t="s">
+        <v>461</v>
+      </c>
+      <c r="C324" t="s">
+        <v>615</v>
+      </c>
+      <c r="D324" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>617</v>
+      </c>
+      <c r="B325" t="s">
+        <v>461</v>
+      </c>
+      <c r="C325" t="s">
+        <v>615</v>
+      </c>
+      <c r="D325" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>618</v>
+      </c>
+      <c r="B326" t="s">
+        <v>461</v>
+      </c>
+      <c r="C326" t="s">
+        <v>615</v>
+      </c>
+      <c r="D326" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>619</v>
+      </c>
+      <c r="B327" t="s">
+        <v>76</v>
+      </c>
+      <c r="C327" t="s">
+        <v>620</v>
+      </c>
+      <c r="D327" t="s">
         <v>7</v>
       </c>
     </row>
